--- a/GCP/GCPについてｎ.xlsx
+++ b/GCP/GCPについてｎ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4755B4-BC18-44E0-B591-5078A590B920}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF3BBF-23AB-411D-A72D-673FA7465C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,18 @@
     <sheet name="Google Cloud Certified" sheetId="3" r:id="rId4"/>
     <sheet name="Associate Cloud Engineer" sheetId="4" r:id="rId5"/>
     <sheet name="Associate Cloud Engineer 模擬試験" sheetId="6" r:id="rId6"/>
-    <sheet name="データペース" sheetId="7" r:id="rId7"/>
-    <sheet name="ストレージ" sheetId="10" r:id="rId8"/>
-    <sheet name="API認証ファイル" sheetId="9" r:id="rId9"/>
-    <sheet name="補足）NoSQLDB" sheetId="8" r:id="rId10"/>
-    <sheet name="IAM" sheetId="5" r:id="rId11"/>
-    <sheet name="Kubernetes" sheetId="12" r:id="rId12"/>
+    <sheet name="Kubernetes" sheetId="12" r:id="rId7"/>
+    <sheet name="データペース" sheetId="7" r:id="rId8"/>
+    <sheet name="ストレージ" sheetId="10" r:id="rId9"/>
+    <sheet name="API認証ファイル" sheetId="9" r:id="rId10"/>
+    <sheet name="補足）NoSQLDB" sheetId="8" r:id="rId11"/>
+    <sheet name="IAM" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Associate Cloud Engineer'!$A$1:$Y$252</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">ストレージ!$A$1:$X$170</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">データペース!$A$1:$AB$701</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'補足）NoSQLDB'!$A$1:$Q$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">ストレージ!$A$1:$X$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">データペース!$A$1:$AB$701</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'補足）NoSQLDB'!$A$1:$Q$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="2048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="2137">
   <si>
     <t>Google Cloud Platform の概要</t>
     <phoneticPr fontId="1"/>
@@ -15387,6 +15387,974 @@
   </si>
   <si>
     <t>Rollback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deploymentは実際のところPodを直接管理しているのではなく、ReplicaSetを管理する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deployment を変更した際は、新しいReplicaSetを作成してPodを置き換えていく。</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deploymentのフィールドについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minReadySeconds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minReadySecondsは、Podが作成されてから使用可能な状態になるまでの待ち時間を指定する。</t>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paused</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pausedはDeploymentの変更をポーズされるかを指定する。</t>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>progressDeadlineSeconds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>progressDeadlineSeconds は、 Deploymentの処理の最大処理時間を指定する。</t>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deploymentの処理時間がこの時間を超えた場合は、処理を失敗させ、ProgressDeadlineExceededをstatusにセットする。</t>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revisionHistoryLimit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revisionHistoryLimitはリビジョンの履歴の保持する数を指定する。</t>
+    <rPh sb="27" eb="29">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strategy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strategyはPodを置き換える際の戦略（RecreateとRollingUpdate）を指定する。</t>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serviceについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ServiceはPodへの接続を解決してくれる抽象的なオブジェクトです。</t>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>チュウショウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端的言えば、Selectoreで選択したPodをUpstreamとしたLBになる。</t>
+    <rPh sb="0" eb="2">
+      <t>タンテキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClusterIP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClusterIPは、Kubernetes内での通信で利用する。</t>
+    <rPh sb="21" eb="22">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスタ内でIPアドレスが払い出され、それを利用して</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pod間で通信を行う。</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodePort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodePortは、KubernetesのNodeのランダムなポートを使用して</t>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部のサーバーからの疎通性を取ってくれる。 その後はClusterIPの</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソツウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serviceと同様だ。</t>
+    <rPh sb="8" eb="10">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoadBalancer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoadBalancerは、NodePortのServiceを作成したうえで、さらに外部の</t>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoadBalancerを作成し、LoadBalancerのUpstreamとしてNodePortで</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疎通性を取っているポートへ転送するように設定してくれる。</t>
+    <rPh sb="0" eb="2">
+      <t>ソツウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExternalName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExternalNameはこれまでのServiceとは異なる。</t>
+    <rPh sb="27" eb="28">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExternalNameは外部のサービスに対s知恵のエイリアスを作成できる。</t>
+    <rPh sb="13" eb="15">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kubernetesのヘルスチェックについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kubernetesにはコンテナへのヘルスチェック（Probe）が用意されています。</t>
+    <rPh sb="33" eb="35">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LivenessProbe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LivenessProbeはコンテナが生存しているかをチェックする。</t>
+    <rPh sb="19" eb="21">
+      <t>セイゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LinevessProbeが通らなくなった場合、コンテナは再作成される。</t>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>サイサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadinessProbe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadinessProbeはコンテナんが準備できている（Read)状態になっているかをチェックする。</t>
+    <rPh sb="21" eb="23">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReadnessProbeが通らなくなった場合、Serviceからのルーティングのた衣装から外される。</t>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イショウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Probeの種類</t>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>httpGet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tcpSocket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナ内でコマンドを実行してチェックする。</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPのGetリクエストを発行してチェックする。</t>
+    <rPh sb="14" eb="16">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCPのコネクションをオープンできるかをチェックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConfigMapとSecret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConfigMapやSecretはアプリケーションの設定やクレデンシャルをコンテナイメージから分離する</t>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ために使われる。</t>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConfigMapやSecretをVolumeとして、または環境変数を通してPodに設定やクレデンシャルを渡す。</t>
+    <rPh sb="30" eb="32">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConfigMapとSecretの違い</t>
+    <rPh sb="17" eb="18">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConfigMapとSecretは、Manifestなどでフィールド名に若干の違いがあるが、それ以外は特に</t>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変わったところが無いように見える。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ingressリソースまで作成すると、DeploymentAがパブリックインターネット上に公開されてしまう。</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loadbalancerによってサービスが公開されてしまう。</t>
+    <rPh sb="21" eb="23">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この操作ではクラウドプロバイダのロードバランサを使用してサービスが外部に公開されてしまう。また、IngressリソースはCluster IPでは機能せず、NodePortのみで機能します。</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この操作によって、サービスがクラスタの内部IPアドレスで公開されます。 この方法を選択することによって、クラスタ内からのみサービスにアクセスできるようになります。</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み取られるバイト数の見積もりには、gcloudではなくbgを使用する必要があります。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この方法によってBigQueryの年間ランニングコストを見積もることができます。</t>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BigQueryに関しては、gcloudではなくbgを使用する必要があります。</t>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永続化ボリュームについて</t>
+    <rPh sb="0" eb="3">
+      <t>エイゾクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StorageClass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kubernetesの永続化ボリュームについて、まず各オブジェクトについてどのようなものかを開設する。</t>
+    <rPh sb="11" eb="14">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永続化ボリュームに関するオブジェクト</t>
+    <rPh sb="0" eb="3">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StorageClassはストレージの種類（通常・高可用性・高スループットなど）を示すオブジェクト</t>
+    <rPh sb="19" eb="21">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>コウカヨウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、プロビジョニングという永続化ボリュームを動的に作成する設定もこのStorageClassに行う。</t>
+    <rPh sb="14" eb="17">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersistentVolume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersistentVolume(PV)は、永続化ボリュームそれ自体についてのオブジェクトになる。</t>
+    <rPh sb="22" eb="25">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StorageClassを元に動的に作成されたものや、Kubernetes管理者によって追加されたボリュームも含まれる。</t>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersistentVolumeClaim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersistentVolumeClaim（PVC）は永続化ボリュームの利用請求をするオブジェクトになる。</t>
+    <rPh sb="27" eb="30">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永続化ボリュームを使用する際は、このPersistentVolumeClaimリソースを作成する。</t>
+    <rPh sb="0" eb="3">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その後、クレームに従ったものが自動的にプロビジョニングされるか、Kubernetesの管理者が</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレームに従ったものを作成するかをして永続化ボリュームが払いさせれる。</t>
+    <rPh sb="5" eb="6">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatefulSet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatefulSetは状態を保持する（ステートフルな）アプリケーションを管理するための</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kunernetesオブジェクトになる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatefulSetには以下のような特徴がある。</t>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安定したネットワーク識別子</t>
+    <rPh sb="0" eb="2">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安定した永続ストレージ</t>
+    <rPh sb="0" eb="2">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順序付けされたグレースフルなデプロイとスケール</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順序付けされた自動ローリングアップデート</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DaemonSet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DaemonSetは、全て・一部のノードで指定されたPodを実行することを保証する。</t>
+    <rPh sb="11" eb="12">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノードが追加されると、DaemenSetで指定されたPodが追加される。</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノードが削除されると、DaemonSetで管理されていたPodが削除される。</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DaemonSet自体が削除されると対象のPodが削除される。</t>
+    <rPh sb="9" eb="11">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Job</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -15555,6 +16523,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -15562,24 +16540,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15588,7 +16554,9 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -15835,6 +16803,372 @@
         <a:xfrm>
           <a:off x="276225" y="36433125"/>
           <a:ext cx="5410200" cy="2531805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223346</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>203092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="deployment">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575CBE2D-56B2-445C-ADD3-8E006C3023A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="551794" y="41620966"/>
+          <a:ext cx="3534104" cy="3513850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57676</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6" descr="clusterip">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB32439-EC61-4270-A08A-DDFB88E08543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="546652" y="53323435"/>
+          <a:ext cx="3337589" cy="1913282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133847</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>238870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7" descr="nodeport">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576B3DD2-FB56-4FED-B78C-D233B917C443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="546652" y="55965587"/>
+          <a:ext cx="3413760" cy="1920240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133847</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>238870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8" descr="loadbalancer">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97DE086-6BE0-4978-8B34-E7233BF3776A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="546652" y="58607739"/>
+          <a:ext cx="3413760" cy="1920240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133847</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>238870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9" descr="externalname">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE72ACC-A0C4-42F5-A264-800BBA814C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="546652" y="61249891"/>
+          <a:ext cx="3413760" cy="1920240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>143608</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>83527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10" descr="pv-fig">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D32154-F299-4196-9189-3D6C4D4D4BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="556846" y="77855885"/>
+          <a:ext cx="4876800" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16206,6 +17540,82 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9016C0-C95B-4A3B-9779-A6A08B6CCDD2}">
+  <dimension ref="A3:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E9EB0B-DC2D-41D5-AFDA-428783FCC824}">
   <dimension ref="A2:Q37"/>
   <sheetViews>
@@ -16325,181 +17735,160 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26" t="s">
         <v>1521</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26" t="s">
         <v>1350</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23" t="s">
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26" t="s">
         <v>1522</v>
       </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23" t="s">
+      <c r="L33" s="26"/>
+      <c r="M33" s="26" t="s">
         <v>1523</v>
       </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23" t="s">
+      <c r="N33" s="26"/>
+      <c r="O33" s="26" t="s">
         <v>1524</v>
       </c>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="26" t="s">
         <v>1517</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23" t="s">
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23" t="s">
+      <c r="L34" s="26"/>
+      <c r="M34" s="26" t="s">
         <v>1529</v>
       </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23" t="s">
+      <c r="N34" s="26"/>
+      <c r="O34" s="26" t="s">
         <v>1531</v>
       </c>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="26" t="s">
         <v>1518</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23" t="s">
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26" t="s">
         <v>1528</v>
       </c>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23" t="s">
+      <c r="L35" s="26"/>
+      <c r="M35" s="26" t="s">
         <v>1530</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23" t="s">
+      <c r="N35" s="26"/>
+      <c r="O35" s="26" t="s">
         <v>1532</v>
       </c>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="26" t="s">
         <v>1519</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26" t="s">
         <v>1527</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23" t="s">
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23" t="s">
+      <c r="L36" s="26"/>
+      <c r="M36" s="26" t="s">
         <v>1530</v>
       </c>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23" t="s">
+      <c r="N36" s="26"/>
+      <c r="O36" s="26" t="s">
         <v>1533</v>
       </c>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="26" t="s">
         <v>1520</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26" t="s">
         <v>1526</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23" t="s">
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26" t="s">
         <v>1526</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23" t="s">
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23" t="s">
+      <c r="L37" s="26"/>
+      <c r="M37" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23" t="s">
+      <c r="N37" s="26"/>
+      <c r="O37" s="26" t="s">
         <v>1534</v>
       </c>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D35:F35"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="O33:Q33"/>
@@ -16509,6 +17898,27 @@
     <mergeCell ref="O34:Q34"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16516,7 +17926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08AA417-E410-4534-A923-4CAF60A54B81}">
   <dimension ref="A1:E357"/>
   <sheetViews>
@@ -20655,718 +22065,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F82706-5ADB-4244-9B11-DBC406A267BC}">
-  <dimension ref="A1:AG172"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="6" max="6" width="3.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="18" spans="25:33">
-      <c r="Y18" s="1" t="s">
-        <v>1936</v>
-      </c>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="25:33">
-      <c r="Z19" t="s">
-        <v>1937</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="20" spans="25:33">
-      <c r="Z20" t="s">
-        <v>1938</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="21" spans="25:33">
-      <c r="Z21" t="s">
-        <v>1939</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="22" spans="25:33">
-      <c r="Z22" t="s">
-        <v>1940</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="24" spans="25:33">
-      <c r="Y24" s="1" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="25" spans="25:33">
-      <c r="Z25" t="s">
-        <v>1942</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="26" spans="25:33">
-      <c r="Z26" t="s">
-        <v>1943</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="27" spans="25:33">
-      <c r="Z27" t="s">
-        <v>1950</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="C39" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="C40" t="s">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="C44" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="C46" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" s="1">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="C50" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="B52" s="1">
-        <v>4</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="C54" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="1">
-        <v>4</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="O57" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59" t="s">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="O60">
-        <v>2</v>
-      </c>
-      <c r="P60" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="O61">
-        <v>3</v>
-      </c>
-      <c r="P61" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12">
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12">
-      <c r="C72" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12">
-      <c r="C74" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1973</v>
-      </c>
-      <c r="K74" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12">
-      <c r="E75" t="s">
-        <v>1974</v>
-      </c>
-      <c r="K75" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12">
-      <c r="E76" t="s">
-        <v>1975</v>
-      </c>
-      <c r="K76" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="F77" t="s">
-        <v>1976</v>
-      </c>
-      <c r="L77" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="E78" t="s">
-        <v>1977</v>
-      </c>
-      <c r="K78" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12">
-      <c r="F79" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12">
-      <c r="F80" s="29" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="F81" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1">
-        <v>5</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="B85" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="B87" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="B89" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="C91" t="s">
-        <v>1990</v>
-      </c>
-      <c r="I91" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="I92" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="C93" t="s">
-        <v>1991</v>
-      </c>
-      <c r="I93" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="I94" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="C95" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="C96" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="C97" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I97" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="C98" t="s">
-        <v>1995</v>
-      </c>
-      <c r="I98" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="C99" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="C100" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="C101" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1">
-        <v>6</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="B105" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1">
-        <v>7</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="B112" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2010</v>
-      </c>
-      <c r="G114" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="B115">
-        <v>2</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2011</v>
-      </c>
-      <c r="G115" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2012</v>
-      </c>
-      <c r="G116" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="B117">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2013</v>
-      </c>
-      <c r="G117" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="G118" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="B119">
-        <v>5</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2014</v>
-      </c>
-      <c r="G119" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="1">
-        <v>8</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2022</v>
-      </c>
-      <c r="G123" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="B124">
-        <v>2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2023</v>
-      </c>
-      <c r="G124" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1">
-        <v>9</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="B142" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="B144" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
-      <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27">
-      <c r="A148" s="1">
-        <v>10</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27">
-      <c r="B150" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27">
-      <c r="A152" s="1">
-        <v>11</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27">
-      <c r="W153" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27">
-      <c r="W155" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27">
-      <c r="W156" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27">
-      <c r="W158">
-        <v>1</v>
-      </c>
-      <c r="X158" t="s">
-        <v>2037</v>
-      </c>
-      <c r="AA158" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27">
-      <c r="W159">
-        <v>2</v>
-      </c>
-      <c r="X159" t="s">
-        <v>2038</v>
-      </c>
-      <c r="AA159" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27">
-      <c r="W160">
-        <v>3</v>
-      </c>
-      <c r="X160" t="s">
-        <v>2039</v>
-      </c>
-      <c r="AA160" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>12</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="B168" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="B171">
-        <v>2</v>
-      </c>
-      <c r="C171" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="B172">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23634,8 +24332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B61CA8-DA93-46D9-A203-AF1C45BEC215}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -23654,10 +24352,10 @@
       <c r="B1" s="10" t="s">
         <v>1246</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="22" t="s">
         <v>1245</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="10" t="s">
         <v>1129</v>
       </c>
@@ -23672,10 +24370,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="93.75">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>1264</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -23688,7 +24386,7 @@
         <v>1080</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="20">
+      <c r="G2" s="21">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -23699,8 +24397,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="56.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="10" t="s">
         <v>1040</v>
       </c>
@@ -23711,14 +24409,14 @@
         <v>1080</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="3" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="93.75">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="10" t="s">
         <v>1041</v>
       </c>
@@ -23731,14 +24429,14 @@
       <c r="F4" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="3" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="10" t="s">
         <v>1042</v>
       </c>
@@ -23749,16 +24447,16 @@
         <v>1080</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="3" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="37.5">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>1048</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -23771,7 +24469,7 @@
         <v>1080</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="20">
+      <c r="G6" s="21">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -23782,8 +24480,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="10" t="s">
         <v>1040</v>
       </c>
@@ -23796,7 +24494,7 @@
       <c r="F7" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="3" t="s">
         <v>1313</v>
       </c>
@@ -23805,8 +24503,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="56.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="10" t="s">
         <v>1041</v>
       </c>
@@ -23817,14 +24515,14 @@
         <v>1080</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="3" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="56.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="10" t="s">
         <v>1042</v>
       </c>
@@ -23835,16 +24533,16 @@
         <v>1080</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="3" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="37.5">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>3</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>1053</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -23859,7 +24557,7 @@
       <c r="F10" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="21">
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -23873,8 +24571,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="37.5">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="10" t="s">
         <v>1040</v>
       </c>
@@ -23885,7 +24583,7 @@
         <v>1047</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="3" t="s">
         <v>1320</v>
       </c>
@@ -23894,8 +24592,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="75">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="10" t="s">
         <v>1041</v>
       </c>
@@ -23906,14 +24604,14 @@
         <v>1080</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="3" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="56.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="10" t="s">
         <v>1042</v>
       </c>
@@ -23922,16 +24620,16 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="3" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="93.75">
-      <c r="A14" s="22">
+      <c r="A14" s="20">
         <v>4</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>1057</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -23944,7 +24642,7 @@
         <v>1080</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="20">
+      <c r="G14" s="21">
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -23955,8 +24653,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="75">
-      <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="10" t="s">
         <v>1040</v>
       </c>
@@ -23969,14 +24667,14 @@
       <c r="F15" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="3" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="56.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="10" t="s">
         <v>1041</v>
       </c>
@@ -23987,14 +24685,14 @@
         <v>1080</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="3" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="56.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24005,16 +24703,16 @@
         <v>1080</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="3" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="56.25">
-      <c r="A18" s="22">
+      <c r="A18" s="20">
         <v>5</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>1062</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -24025,7 +24723,7 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="20">
+      <c r="G18" s="21">
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -24033,8 +24731,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="56.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24043,14 +24741,14 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="3" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="37.5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24063,14 +24761,14 @@
       <c r="F20" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="3" t="s">
         <v>1331</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="56.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24081,16 +24779,16 @@
         <v>1080</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="3" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="56.25">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>6</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>1067</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -24103,7 +24801,7 @@
         <v>1080</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="20">
+      <c r="G22" s="21">
         <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -24111,8 +24809,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="37.5">
-      <c r="A23" s="22"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24123,14 +24821,14 @@
         <v>1080</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="3" t="s">
         <v>1781</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="37.5">
-      <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24141,14 +24839,14 @@
       <c r="F24" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="3" t="s">
         <v>1782</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="37.5">
-      <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24159,16 +24857,16 @@
         <v>1047</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="3" t="s">
         <v>1783</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A26" s="22">
+      <c r="A26" s="20">
         <v>7</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>1070</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -24181,7 +24879,7 @@
         <v>1080</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="20">
+      <c r="G26" s="21">
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -24189,8 +24887,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24203,14 +24901,14 @@
       <c r="F27" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="3" t="s">
         <v>1785</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="56.25" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24221,14 +24919,14 @@
         <v>1080</v>
       </c>
       <c r="F28" s="10"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="3" t="s">
         <v>1862</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24237,16 +24935,16 @@
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="3" t="s">
         <v>1863</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="112.5">
-      <c r="A30" s="22">
+      <c r="A30" s="20">
         <v>8</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>1075</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -24257,7 +24955,7 @@
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="20">
+      <c r="G30" s="21">
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -24268,8 +24966,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="75">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24280,7 +24978,7 @@
         <v>1047</v>
       </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="3" t="s">
         <v>1865</v>
       </c>
@@ -24289,8 +24987,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="93.75">
-      <c r="A32" s="22"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24301,7 +24999,7 @@
       <c r="F32" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="3" t="s">
         <v>1867</v>
       </c>
@@ -24310,8 +25008,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="131.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24320,16 +25018,16 @@
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="3" t="s">
         <v>1868</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="112.5">
-      <c r="A34" s="20">
+      <c r="A34" s="21">
         <v>9</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>1081</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -24344,7 +25042,7 @@
       <c r="F34" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="21">
         <v>1</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -24355,8 +25053,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="56.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24367,7 +25065,7 @@
         <v>1080</v>
       </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="3" t="s">
         <v>1875</v>
       </c>
@@ -24376,8 +25074,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="56.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24388,14 +25086,14 @@
         <v>1080</v>
       </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="3" t="s">
         <v>1876</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="86.25" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24404,14 +25102,14 @@
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="3" t="s">
         <v>1877</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="10" t="s">
         <v>1082</v>
       </c>
@@ -24424,16 +25122,16 @@
       <c r="F38" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G38" s="20"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="3" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="56.25">
-      <c r="A39" s="22">
+      <c r="A39" s="20">
         <v>10</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>1088</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -24448,7 +25146,7 @@
       <c r="F39" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="21">
         <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -24459,8 +25157,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="56.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24471,14 +25169,14 @@
         <v>1047</v>
       </c>
       <c r="F40" s="10"/>
-      <c r="G40" s="20"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="3" t="s">
         <v>1882</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="112.5">
-      <c r="A41" s="22"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24487,14 +25185,14 @@
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="20"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="3" t="s">
         <v>1883</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="75">
-      <c r="A42" s="22"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24505,16 +25203,16 @@
         <v>1080</v>
       </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="3" t="s">
         <v>1884</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="75">
-      <c r="A43" s="22">
+      <c r="A43" s="20">
         <v>11</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>1093</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -24529,7 +25227,7 @@
       <c r="F43" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="21">
         <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -24537,8 +25235,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="93.75">
-      <c r="A44" s="22"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24549,14 +25247,14 @@
         <v>1080</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="20"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="3" t="s">
         <v>1886</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="56.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24567,14 +25265,14 @@
         <v>1047</v>
       </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="20"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="3" t="s">
         <v>1887</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="75">
-      <c r="A46" s="22"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24583,13 +25281,13 @@
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="20"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A47" s="22">
+      <c r="A47" s="20">
         <v>12</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>1098</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -24600,7 +25298,7 @@
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="20">
+      <c r="G47" s="21">
         <v>1</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -24608,8 +25306,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24622,14 +25320,14 @@
       <c r="F48" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G48" s="20"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="3" t="s">
         <v>1889</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24642,14 +25340,14 @@
       <c r="F49" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G49" s="20"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="3" t="s">
         <v>1889</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24658,14 +25356,14 @@
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="20"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="3" t="s">
         <v>1890</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="10" t="s">
         <v>1082</v>
       </c>
@@ -24674,16 +25372,16 @@
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="20"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="3" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="37.5">
-      <c r="A52" s="22">
+      <c r="A52" s="20">
         <v>13</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="19" t="s">
         <v>1099</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -24696,7 +25394,7 @@
       <c r="F52" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="21">
         <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -24704,8 +25402,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="37.5">
-      <c r="A53" s="22"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24716,14 +25414,14 @@
         <v>1047</v>
       </c>
       <c r="F53" s="10"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="3" t="s">
         <v>1893</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="37.5">
-      <c r="A54" s="22"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24734,14 +25432,14 @@
         <v>1080</v>
       </c>
       <c r="F54" s="10"/>
-      <c r="G54" s="20"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="3" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="37.5">
-      <c r="A55" s="22"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24750,16 +25448,16 @@
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="20"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="3" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="56.25">
-      <c r="A56" s="22">
+      <c r="A56" s="20">
         <v>14</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="19" t="s">
         <v>1104</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -24772,7 +25470,7 @@
         <v>1080</v>
       </c>
       <c r="F56" s="10"/>
-      <c r="G56" s="20">
+      <c r="G56" s="21">
         <v>1</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -24783,8 +25481,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="56.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24795,14 +25493,14 @@
         <v>1080</v>
       </c>
       <c r="F57" s="10"/>
-      <c r="G57" s="20"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="3" t="s">
         <v>1897</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="56.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24813,14 +25511,14 @@
         <v>1080</v>
       </c>
       <c r="F58" s="10"/>
-      <c r="G58" s="20"/>
+      <c r="G58" s="21"/>
       <c r="H58" s="3" t="s">
         <v>1898</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="56.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24833,16 +25531,16 @@
       <c r="F59" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G59" s="20"/>
+      <c r="G59" s="21"/>
       <c r="H59" s="2" t="s">
         <v>1921</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="75">
-      <c r="A60" s="22">
+      <c r="A60" s="20">
         <v>15</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="19" t="s">
         <v>1109</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -24853,15 +25551,19 @@
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="20"/>
-      <c r="H60"/>
+      <c r="G60" s="21">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2102</v>
+      </c>
       <c r="I60" s="13" t="s">
         <v>1922</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="56.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24870,11 +25572,14 @@
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="20"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="3" t="s">
+        <v>2103</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="93.75">
-      <c r="A62" s="22"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24883,26 +25588,36 @@
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="3" t="s">
+        <v>2104</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="56.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="20"/>
+      <c r="E63" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G63" s="21"/>
+      <c r="H63" s="3" t="s">
+        <v>2105</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="56.25">
-      <c r="A64" s="22">
+      <c r="A64" s="20">
         <v>16</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="19" t="s">
         <v>1114</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -24915,13 +25630,16 @@
         <v>1080</v>
       </c>
       <c r="F64" s="10"/>
-      <c r="G64" s="20">
+      <c r="G64" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="56.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="21"/>
+      <c r="H64" s="3" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="56.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24934,11 +25652,14 @@
       <c r="F65" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G65" s="20"/>
-    </row>
-    <row r="66" spans="1:7" ht="56.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="3" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="56.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24949,11 +25670,14 @@
         <v>1080</v>
       </c>
       <c r="F66" s="10"/>
-      <c r="G66" s="20"/>
-    </row>
-    <row r="67" spans="1:7" ht="37.5">
-      <c r="A67" s="22"/>
-      <c r="B67" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="3" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="37.5">
+      <c r="A67" s="20"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24964,13 +25688,13 @@
         <v>1080</v>
       </c>
       <c r="F67" s="10"/>
-      <c r="G67" s="20"/>
-    </row>
-    <row r="68" spans="1:7" ht="56.25">
-      <c r="A68" s="22">
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:8" ht="56.25">
+      <c r="A68" s="20">
         <v>17</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="19" t="s">
         <v>1119</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -24983,13 +25707,13 @@
         <v>1080</v>
       </c>
       <c r="F68" s="10"/>
-      <c r="G68" s="20">
+      <c r="G68" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="56.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="21"/>
+    <row r="69" spans="1:8" ht="56.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25002,11 +25726,11 @@
       <c r="F69" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="1:7" ht="37.5">
-      <c r="A70" s="22"/>
-      <c r="B70" s="21"/>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="1:8" ht="37.5">
+      <c r="A70" s="20"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25015,11 +25739,11 @@
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="20"/>
-    </row>
-    <row r="71" spans="1:7" ht="37.5">
-      <c r="A71" s="22"/>
-      <c r="B71" s="21"/>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="1:8" ht="37.5">
+      <c r="A71" s="20"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25028,13 +25752,13 @@
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="20"/>
-    </row>
-    <row r="72" spans="1:7" ht="56.25">
-      <c r="A72" s="22">
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="1:8" ht="56.25">
+      <c r="A72" s="20">
         <v>18</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="19" t="s">
         <v>1267</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -25045,13 +25769,13 @@
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="20">
+      <c r="G72" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="112.5">
-      <c r="A73" s="22"/>
-      <c r="B73" s="21"/>
+    <row r="73" spans="1:8" ht="112.5">
+      <c r="A73" s="20"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25060,11 +25784,11 @@
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="20"/>
-    </row>
-    <row r="74" spans="1:7" ht="75">
-      <c r="A74" s="22"/>
-      <c r="B74" s="21"/>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="1:8" ht="75">
+      <c r="A74" s="20"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25075,11 +25799,11 @@
         <v>1080</v>
       </c>
       <c r="F74" s="10"/>
-      <c r="G74" s="20"/>
-    </row>
-    <row r="75" spans="1:7" ht="56.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="21"/>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="1:8" ht="56.25">
+      <c r="A75" s="20"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25092,13 +25816,13 @@
       <c r="F75" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G75" s="20"/>
-    </row>
-    <row r="76" spans="1:7" ht="75">
-      <c r="A76" s="22">
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="1:8" ht="75">
+      <c r="A76" s="20">
         <v>19</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="19" t="s">
         <v>1124</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -25111,13 +25835,13 @@
         <v>1080</v>
       </c>
       <c r="F76" s="10"/>
-      <c r="G76" s="20">
+      <c r="G76" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="56.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="21"/>
+    <row r="77" spans="1:8" ht="56.25">
+      <c r="A77" s="20"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25128,11 +25852,11 @@
         <v>1080</v>
       </c>
       <c r="F77" s="10"/>
-      <c r="G77" s="20"/>
-    </row>
-    <row r="78" spans="1:7" ht="93.75">
-      <c r="A78" s="22"/>
-      <c r="B78" s="21"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="1:8" ht="93.75">
+      <c r="A78" s="20"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25145,11 +25869,11 @@
       <c r="F78" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G78" s="20"/>
-    </row>
-    <row r="79" spans="1:7" ht="75">
-      <c r="A79" s="22"/>
-      <c r="B79" s="21"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:8" ht="75">
+      <c r="A79" s="20"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25158,13 +25882,13 @@
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="20"/>
-    </row>
-    <row r="80" spans="1:7" ht="37.5">
-      <c r="A80" s="22">
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:8" ht="37.5">
+      <c r="A80" s="20">
         <v>20</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="19" t="s">
         <v>1276</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -25179,13 +25903,13 @@
       <c r="F80" s="10" t="s">
         <v>1047</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="37.5">
-      <c r="A81" s="22"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25196,11 +25920,11 @@
         <v>1080</v>
       </c>
       <c r="F81" s="10"/>
-      <c r="G81" s="20"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" spans="1:7" ht="37.5">
-      <c r="A82" s="22"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25209,11 +25933,11 @@
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7" ht="37.5">
-      <c r="A83" s="22"/>
-      <c r="B83" s="21"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25224,48 +25948,29 @@
         <v>1080</v>
       </c>
       <c r="F83" s="10"/>
-      <c r="G83" s="20"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="1:7">
       <c r="G84" s="9">
         <f>SUM(G2:G83)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G56:G59"/>
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="G2:G5"/>
@@ -25282,19 +25987,38 @@
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="A76:A79"/>
     <mergeCell ref="B76:B79"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -25319,6 +26043,1218 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F82706-5ADB-4244-9B11-DBC406A267BC}">
+  <dimension ref="A1:AG356"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q359" sqref="Q359"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="18" spans="25:33">
+      <c r="Y18" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="25:33">
+      <c r="Z19" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="20" spans="25:33">
+      <c r="Z20" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="21" spans="25:33">
+      <c r="Z21" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="22" spans="25:33">
+      <c r="Z22" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="24" spans="25:33">
+      <c r="Y24" s="1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="25" spans="25:33">
+      <c r="Z25" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="26" spans="25:33">
+      <c r="Z26" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="27" spans="25:33">
+      <c r="Z27" t="s">
+        <v>1950</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="C39" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="C40" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="C50" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="C54" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="O57" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="C72" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="C74" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1973</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="E75" t="s">
+        <v>1974</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="E76" t="s">
+        <v>1975</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="F77" t="s">
+        <v>1976</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="E78" t="s">
+        <v>1977</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="F79" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="F80" s="18" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="F81" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="B85" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="B87" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="B89" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="C91" t="s">
+        <v>1990</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="I92" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="C93" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I93" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="I94" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="C95" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="C96" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="C97" t="s">
+        <v>1994</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="C98" t="s">
+        <v>1995</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="C99" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="C100" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="C101" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>6</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="B105" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>7</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="B112" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G114" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="G118" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G119" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>9</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" s="1">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="B150" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
+      <c r="A152" s="1">
+        <v>11</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
+      <c r="W153" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
+      <c r="W155" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27">
+      <c r="W156" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
+      <c r="W158">
+        <v>1</v>
+      </c>
+      <c r="X158" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27">
+      <c r="W159">
+        <v>2</v>
+      </c>
+      <c r="X159" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27">
+      <c r="W160">
+        <v>3</v>
+      </c>
+      <c r="X160" t="s">
+        <v>2039</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>12</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="B168" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="B174" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="B175" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="D197" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="D201" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="D205" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="D206" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="C208">
+        <v>4</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
+      <c r="D210" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
+      <c r="C212">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
+      <c r="D214" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
+      <c r="A216" s="1">
+        <v>13</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
+      <c r="B218" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
+      <c r="B219" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
+      <c r="B221" s="1">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
+      <c r="Q223" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="225" spans="2:17">
+      <c r="Q225" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="226" spans="2:17">
+      <c r="Q226" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="232" spans="2:17">
+      <c r="B232" s="1">
+        <v>2</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="234" spans="2:17">
+      <c r="Q234" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="235" spans="2:17">
+      <c r="Q235" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="236" spans="2:17">
+      <c r="Q236" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="243" spans="2:17">
+      <c r="B243" s="1">
+        <v>3</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="246" spans="2:17">
+      <c r="Q246" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="247" spans="2:17">
+      <c r="Q247" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="248" spans="2:17">
+      <c r="Q248" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="254" spans="2:17">
+      <c r="B254" s="1">
+        <v>4</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="256" spans="2:17">
+      <c r="Q256" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
+      <c r="Q258" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
+      <c r="A265" s="1">
+        <v>14</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
+      <c r="B267" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
+      <c r="B269" s="1">
+        <v>1</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
+      <c r="C271" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
+      <c r="C272" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="B274" s="1">
+        <v>2</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="C276" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="C277" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>15</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G281" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G282" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2091</v>
+      </c>
+      <c r="G283" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>16</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="B287" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="B288" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="B290" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="B292" s="1">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="C294" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="C295" s="15" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>17</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="B299" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="B301" s="1">
+        <v>1</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="C303" s="1">
+        <v>1</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="305" spans="3:4">
+      <c r="D305" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="307" spans="3:4">
+      <c r="D307" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="309" spans="3:4">
+      <c r="C309" s="1">
+        <v>2</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="311" spans="3:4">
+      <c r="D311" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4">
+      <c r="D313" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="315" spans="3:4">
+      <c r="C315" s="1">
+        <v>3</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="317" spans="3:4">
+      <c r="D317" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="319" spans="3:4">
+      <c r="D319" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4">
+      <c r="D320" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="D321" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>18</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="B338" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="B339" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="B341" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="B346">
+        <v>4</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>19</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="B350" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="C352" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="C353" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="C354" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>20</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EC2E59-0F40-48B2-9ACD-E777D4A03C1D}">
   <dimension ref="A2:U696"/>
   <sheetViews>
@@ -25836,27 +27772,27 @@
       <c r="D132" s="24"/>
       <c r="E132" s="24"/>
       <c r="F132" s="24"/>
-      <c r="G132" s="23" t="s">
+      <c r="G132" s="26" t="s">
         <v>1356</v>
       </c>
-      <c r="H132" s="23"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="23" t="s">
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="26" t="s">
         <v>1356</v>
       </c>
-      <c r="M132" s="23"/>
-      <c r="N132" s="23"/>
-      <c r="O132" s="23"/>
-      <c r="P132" s="23"/>
-      <c r="Q132" s="23" t="s">
+      <c r="M132" s="26"/>
+      <c r="N132" s="26"/>
+      <c r="O132" s="26"/>
+      <c r="P132" s="26"/>
+      <c r="Q132" s="26" t="s">
         <v>1358</v>
       </c>
-      <c r="R132" s="23"/>
-      <c r="S132" s="23"/>
-      <c r="T132" s="23"/>
-      <c r="U132" s="23"/>
+      <c r="R132" s="26"/>
+      <c r="S132" s="26"/>
+      <c r="T132" s="26"/>
+      <c r="U132" s="26"/>
     </row>
     <row r="133" spans="2:21">
       <c r="B133" s="24" t="s">
@@ -25866,27 +27802,27 @@
       <c r="D133" s="24"/>
       <c r="E133" s="24"/>
       <c r="F133" s="24"/>
-      <c r="G133" s="23" t="s">
+      <c r="G133" s="26" t="s">
         <v>1356</v>
       </c>
-      <c r="H133" s="23"/>
-      <c r="I133" s="23"/>
-      <c r="J133" s="23"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="23" t="s">
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="26" t="s">
         <v>1356</v>
       </c>
-      <c r="M133" s="23"/>
-      <c r="N133" s="23"/>
-      <c r="O133" s="23"/>
-      <c r="P133" s="23"/>
-      <c r="Q133" s="23" t="s">
+      <c r="M133" s="26"/>
+      <c r="N133" s="26"/>
+      <c r="O133" s="26"/>
+      <c r="P133" s="26"/>
+      <c r="Q133" s="26" t="s">
         <v>1358</v>
       </c>
-      <c r="R133" s="23"/>
-      <c r="S133" s="23"/>
-      <c r="T133" s="23"/>
-      <c r="U133" s="23"/>
+      <c r="R133" s="26"/>
+      <c r="S133" s="26"/>
+      <c r="T133" s="26"/>
+      <c r="U133" s="26"/>
     </row>
     <row r="134" spans="2:21">
       <c r="B134" s="24" t="s">
@@ -25896,27 +27832,27 @@
       <c r="D134" s="24"/>
       <c r="E134" s="24"/>
       <c r="F134" s="24"/>
-      <c r="G134" s="23" t="s">
+      <c r="G134" s="26" t="s">
         <v>1357</v>
       </c>
-      <c r="H134" s="23"/>
-      <c r="I134" s="23"/>
-      <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="23" t="s">
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="26" t="s">
         <v>1357</v>
       </c>
-      <c r="M134" s="23"/>
-      <c r="N134" s="23"/>
-      <c r="O134" s="23"/>
-      <c r="P134" s="23"/>
-      <c r="Q134" s="23" t="s">
+      <c r="M134" s="26"/>
+      <c r="N134" s="26"/>
+      <c r="O134" s="26"/>
+      <c r="P134" s="26"/>
+      <c r="Q134" s="26" t="s">
         <v>1359</v>
       </c>
-      <c r="R134" s="23"/>
-      <c r="S134" s="23"/>
-      <c r="T134" s="23"/>
-      <c r="U134" s="23"/>
+      <c r="R134" s="26"/>
+      <c r="S134" s="26"/>
+      <c r="T134" s="26"/>
+      <c r="U134" s="26"/>
     </row>
     <row r="135" spans="2:21">
       <c r="B135" s="24" t="s">
@@ -25926,27 +27862,27 @@
       <c r="D135" s="24"/>
       <c r="E135" s="24"/>
       <c r="F135" s="24"/>
-      <c r="G135" s="23" t="s">
+      <c r="G135" s="26" t="s">
         <v>1360</v>
       </c>
-      <c r="H135" s="23"/>
-      <c r="I135" s="23"/>
-      <c r="J135" s="23"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="23" t="s">
+      <c r="H135" s="26"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="26" t="s">
         <v>1354</v>
       </c>
-      <c r="M135" s="23"/>
-      <c r="N135" s="23"/>
-      <c r="O135" s="23"/>
-      <c r="P135" s="23"/>
-      <c r="Q135" s="23" t="s">
+      <c r="M135" s="26"/>
+      <c r="N135" s="26"/>
+      <c r="O135" s="26"/>
+      <c r="P135" s="26"/>
+      <c r="Q135" s="26" t="s">
         <v>1360</v>
       </c>
-      <c r="R135" s="23"/>
-      <c r="S135" s="23"/>
-      <c r="T135" s="23"/>
-      <c r="U135" s="23"/>
+      <c r="R135" s="26"/>
+      <c r="S135" s="26"/>
+      <c r="T135" s="26"/>
+      <c r="U135" s="26"/>
     </row>
     <row r="136" spans="2:21">
       <c r="B136" s="24" t="s">
@@ -25956,27 +27892,27 @@
       <c r="D136" s="24"/>
       <c r="E136" s="24"/>
       <c r="F136" s="24"/>
-      <c r="G136" s="23" t="s">
+      <c r="G136" s="26" t="s">
         <v>1361</v>
       </c>
-      <c r="H136" s="23"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="23" t="s">
+      <c r="H136" s="26"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="26" t="s">
         <v>1355</v>
       </c>
-      <c r="M136" s="23"/>
-      <c r="N136" s="23"/>
-      <c r="O136" s="23"/>
-      <c r="P136" s="23"/>
-      <c r="Q136" s="23" t="s">
+      <c r="M136" s="26"/>
+      <c r="N136" s="26"/>
+      <c r="O136" s="26"/>
+      <c r="P136" s="26"/>
+      <c r="Q136" s="26" t="s">
         <v>1361</v>
       </c>
-      <c r="R136" s="23"/>
-      <c r="S136" s="23"/>
-      <c r="T136" s="23"/>
-      <c r="U136" s="23"/>
+      <c r="R136" s="26"/>
+      <c r="S136" s="26"/>
+      <c r="T136" s="26"/>
+      <c r="U136" s="26"/>
     </row>
     <row r="137" spans="2:21">
       <c r="B137" s="24" t="s">
@@ -25986,27 +27922,27 @@
       <c r="D137" s="24"/>
       <c r="E137" s="24"/>
       <c r="F137" s="24"/>
-      <c r="G137" s="23" t="s">
+      <c r="G137" s="26" t="s">
         <v>1363</v>
       </c>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="23" t="s">
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="26" t="s">
         <v>1362</v>
       </c>
-      <c r="M137" s="23"/>
-      <c r="N137" s="23"/>
-      <c r="O137" s="23"/>
-      <c r="P137" s="23"/>
-      <c r="Q137" s="23" t="s">
+      <c r="M137" s="26"/>
+      <c r="N137" s="26"/>
+      <c r="O137" s="26"/>
+      <c r="P137" s="26"/>
+      <c r="Q137" s="26" t="s">
         <v>1362</v>
       </c>
-      <c r="R137" s="23"/>
-      <c r="S137" s="23"/>
-      <c r="T137" s="23"/>
-      <c r="U137" s="23"/>
+      <c r="R137" s="26"/>
+      <c r="S137" s="26"/>
+      <c r="T137" s="26"/>
+      <c r="U137" s="26"/>
     </row>
     <row r="139" spans="2:21">
       <c r="B139" s="1" t="s">
@@ -27836,6 +29772,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G136:K136"/>
+    <mergeCell ref="L136:P136"/>
+    <mergeCell ref="Q136:U136"/>
+    <mergeCell ref="G137:K137"/>
+    <mergeCell ref="L137:P137"/>
+    <mergeCell ref="Q137:U137"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="L134:P134"/>
+    <mergeCell ref="Q134:U134"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="L135:P135"/>
+    <mergeCell ref="Q135:U135"/>
     <mergeCell ref="B137:F137"/>
     <mergeCell ref="G131:K131"/>
     <mergeCell ref="L131:P131"/>
@@ -27852,18 +29800,6 @@
     <mergeCell ref="B134:F134"/>
     <mergeCell ref="B135:F135"/>
     <mergeCell ref="B136:F136"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="L134:P134"/>
-    <mergeCell ref="Q134:U134"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="L135:P135"/>
-    <mergeCell ref="Q135:U135"/>
-    <mergeCell ref="G136:K136"/>
-    <mergeCell ref="L136:P136"/>
-    <mergeCell ref="Q136:U136"/>
-    <mergeCell ref="G137:K137"/>
-    <mergeCell ref="L137:P137"/>
-    <mergeCell ref="Q137:U137"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27871,7 +29807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD8E5B-3AAE-443A-AAC0-5B0923EF8DCC}">
   <dimension ref="A2:U838"/>
   <sheetViews>
@@ -27903,153 +29839,153 @@
     </row>
     <row r="7" spans="1:21" s="15" customFormat="1"/>
     <row r="8" spans="1:21" s="15" customFormat="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
         <v>1793</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
         <v>1794</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26" t="s">
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29" t="s">
         <v>1795</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:21" s="15" customFormat="1" ht="39" customHeight="1">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>1789</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="27" t="s">
         <v>1796</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="27" t="s">
         <v>1797</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="27" t="s">
         <v>1798</v>
       </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:21" s="15" customFormat="1">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>1790</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="28" t="s">
         <v>1799</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
     </row>
     <row r="11" spans="1:21" s="15" customFormat="1">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>1791</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="28" t="s">
         <v>1800</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
     </row>
     <row r="12" spans="1:21" s="15" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>1792</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="27" t="s">
         <v>1801</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="27" t="s">
         <v>1802</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="27" t="s">
         <v>1803</v>
       </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
     </row>
     <row r="13" spans="1:21" s="15" customFormat="1" ht="93.75" customHeight="1">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>1788</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="27" t="s">
         <v>1804</v>
       </c>
@@ -29164,11 +31100,6 @@
     <row r="838" s="15" customFormat="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="G10:U10"/>
-    <mergeCell ref="G11:U11"/>
-    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:P12"/>
@@ -29183,86 +31114,15 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="G10:U10"/>
+    <mergeCell ref="G11:U11"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9016C0-C95B-4A3B-9779-A6A08B6CCDD2}">
-  <dimension ref="A3:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GCP/GCPについてｎ.xlsx
+++ b/GCP/GCPについてｎ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF3BBF-23AB-411D-A72D-673FA7465C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1909EA45-C31B-49B2-B230-6A420C508218}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="2137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="2161">
   <si>
     <t>Google Cloud Platform の概要</t>
     <phoneticPr fontId="1"/>
@@ -7375,9 +7375,6 @@
   </si>
   <si>
     <t>担当者用の新しいロールを作成し、組織で作成される現在および今後のプロジェクトすべてにそのロールを適用しようと考えています。このロールには BigQuery ジョブユーザーのロールと Cloud Bigtable ユーザーのロールの権限が必要です。作成する作業は、Google が推奨する方法で行いたいと考えています。新しいロールをどのように作成しますか。</t>
-  </si>
-  <si>
-    <t>"gcloud iam combine-roles --global" を実行して、2 つのロールを 1 つの新しいカスタムのロールにまとめる。</t>
   </si>
   <si>
     <t>いずれかのプロジェクトに対して、Google Cloud Platform Console の [ロール] で両方のロールを選択し、1 つの新しいカスタムのロールにまとめる。"gcloud iam promote-role" を実行して、このロールをプロジェクトのロールから組織のロールに昇格させる。</t>
@@ -16355,6 +16352,450 @@
   </si>
   <si>
     <t>Job</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jobは1つ以上のPodを作成し、指定された数が正常に終了するのを保証する。</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JobはPodが正常に完了したことを追跡する。 指定された数が正常に終了した際にJobが完了となる。</t>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jobを削除するとそのJobによって作成されたPodも削除される。</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jobを使用して複数のPodを並列に実行することもできる。</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jobの並列数と完了数</t>
+    <rPh sb="4" eb="6">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jobは並列数と完了数が指定できる。 並列数はデフォルトで１になり、完了数は指定しなかった場合は</t>
+    <rPh sb="4" eb="6">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並列数と同じ値になる。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並列数を指定すると、Podが同時に起動・実行される。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了数を指定すると、指定された回数だけPodが正常に完了するまで実行される。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この操作では組織全体のオーナーが抽出される。</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このコマンドによって、特定のリソースに対して付与可能な役割の一覧が表示されるが、特定の役割を持つユーザは返されない。</t>
+    <rPh sb="11" eb="13">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cと同じである。</t>
+    <rPh sb="2" eb="3">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"gcloud iam combine-roles --global" を実行して、2 つのロールを 1 つの新しいカスタムのロールにまとめる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この操作では新しい役割は作成されない。</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gcloudでは、役割を組織レベルに昇格させることはできない。</t>
+    <rPh sb="9" eb="11">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割は組織レベルで定義することが推奨されています。
+また、この役割は新しいプロジェクトには適用されません。</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この操作によって、組み合わされた権限を持つ新しい役割が組織レベルで作成されます。</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザごとの割り当てではなく、グループ単位での割り当てが推奨されています。</t>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロールの割り当てではなく、作成をしている。</t>
+    <rPh sb="4" eb="5">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google ではロールの割り当ては、可能な限りグループ単位で行うことを推奨しています。</t>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cloud.google.com/sdk/gcloud/reference/iam/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">特定のプロジェクトでカスタムの役割に割り当てられている権限を確認する場合は、このコンソール セクションで確認します。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gcloud init - initialize or reinitialize gcloud
+必要な情報は表示されない。</t>
+    <rPh sb="48" eb="50">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cloud.google.com/iam/docs/understanding-roles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cloud.google.com/iam/docs/creating-custom-roles</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -16524,6 +16965,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -16531,13 +16981,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -16545,16 +16989,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -17187,6 +17628,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>249115</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>241285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>250581</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11" descr="job-tl">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0CB590-1206-4DB3-A773-F6DBCC10B50D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="527538" y="89461227"/>
+          <a:ext cx="5291505" cy="2997215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17551,62 +18053,62 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
   </sheetData>
@@ -17627,7 +18129,7 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -17635,25 +18137,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C9" t="s">
         <v>1509</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -17661,20 +18163,20 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C16" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -17682,25 +18184,25 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C23" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -17708,205 +18210,187 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C31" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24" t="s">
+        <v>1522</v>
+      </c>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24" t="s">
+        <v>1523</v>
+      </c>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="24" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26" t="s">
-        <v>1522</v>
-      </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26" t="s">
-        <v>1523</v>
-      </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24" t="s">
         <v>1524</v>
       </c>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="26" t="s">
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24" t="s">
+        <v>1528</v>
+      </c>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24" t="s">
+        <v>1530</v>
+      </c>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="24" t="s">
         <v>1517</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24" t="s">
+        <v>1529</v>
+      </c>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="24" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24" t="s">
+        <v>1529</v>
+      </c>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24" t="s">
+        <v>1532</v>
+      </c>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="24" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24" t="s">
         <v>1525</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26" t="s">
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24" t="s">
         <v>1525</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26" t="s">
-        <v>1525</v>
-      </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26" t="s">
-        <v>1529</v>
-      </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26" t="s">
-        <v>1531</v>
-      </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="26" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26" t="s">
-        <v>1530</v>
-      </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="26" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26" t="s">
-        <v>1525</v>
-      </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26" t="s">
-        <v>1530</v>
-      </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26" t="s">
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24" t="s">
         <v>1533</v>
       </c>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="26" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26" t="s">
-        <v>1525</v>
-      </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26" t="s">
-        <v>1525</v>
-      </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26" t="s">
-        <v>1534</v>
-      </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:Q36"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:J37"/>
@@ -17919,6 +18403,24 @@
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D35:F35"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:J33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18093,10 +18595,10 @@
         <v>340</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1277</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1278</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>405</v>
@@ -18106,10 +18608,10 @@
       <c r="A13" s="12"/>
       <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1279</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1280</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>408</v>
@@ -18119,10 +18621,10 @@
       <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>409</v>
@@ -18132,10 +18634,10 @@
       <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>1283</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1284</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>410</v>
@@ -18147,23 +18649,23 @@
         <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>1287</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="37.5">
       <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -18171,10 +18673,10 @@
       <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -18182,39 +18684,39 @@
       <c r="A19" s="12"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>1292</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="131.25">
       <c r="A20" s="12"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>1295</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="243.75">
       <c r="A21" s="12"/>
       <c r="B21" s="8"/>
       <c r="C21" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>1299</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37.5">
@@ -18224,10 +18726,10 @@
         <v>388</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="187.5">
@@ -18237,33 +18739,33 @@
         <v>389</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="281.25">
       <c r="A24" s="12"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>1307</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="56.25">
       <c r="A25" s="12"/>
       <c r="B25" s="8"/>
       <c r="C25" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>1305</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>1306</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>411</v>
@@ -22334,7 +22836,7 @@
         <v>74</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -22350,7 +22852,7 @@
         <v>77</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="37.5">
@@ -23207,7 +23709,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -23215,37 +23717,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" s="13" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="13" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -23253,72 +23755,72 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="C21" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="C22" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
   </sheetData>
@@ -24332,8 +24834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B61CA8-DA93-46D9-A203-AF1C45BEC215}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B71"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -24352,10 +24854,10 @@
       <c r="B1" s="10" t="s">
         <v>1246</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>1245</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="10" t="s">
         <v>1129</v>
       </c>
@@ -24370,10 +24872,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="93.75">
-      <c r="A2" s="20">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>1264</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -24397,8 +24899,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="56.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24415,8 +24917,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="93.75">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24435,8 +24937,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24453,10 +24955,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="37.5">
-      <c r="A6" s="20">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>1048</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -24473,15 +24975,15 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24496,15 +24998,15 @@
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="56.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24517,12 +25019,12 @@
       <c r="F8" s="10"/>
       <c r="G8" s="21"/>
       <c r="H8" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="56.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24535,14 +25037,14 @@
       <c r="F9" s="10"/>
       <c r="G9" s="21"/>
       <c r="H9" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="37.5">
-      <c r="A10" s="20">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>1053</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -24561,18 +25063,18 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="37.5">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24585,20 +25087,20 @@
       <c r="F11" s="10"/>
       <c r="G11" s="21"/>
       <c r="H11" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="10" t="s">
         <v>1041</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1080</v>
@@ -24606,12 +25108,12 @@
       <c r="F12" s="10"/>
       <c r="G12" s="21"/>
       <c r="H12" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="56.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24622,14 +25124,14 @@
       <c r="F13" s="10"/>
       <c r="G13" s="21"/>
       <c r="H13" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="93.75">
-      <c r="A14" s="20">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>1057</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -24646,15 +25148,15 @@
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="75">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24669,12 +25171,12 @@
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="56.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24687,12 +25189,12 @@
       <c r="F16" s="10"/>
       <c r="G16" s="21"/>
       <c r="H16" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="56.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24705,14 +25207,14 @@
       <c r="F17" s="10"/>
       <c r="G17" s="21"/>
       <c r="H17" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="56.25">
-      <c r="A18" s="20">
+      <c r="A18" s="23">
         <v>5</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="22" t="s">
         <v>1062</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -24727,12 +25229,12 @@
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="56.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24743,12 +25245,12 @@
       <c r="F19" s="10"/>
       <c r="G19" s="21"/>
       <c r="H19" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="37.5">
-      <c r="A20" s="20"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24763,12 +25265,12 @@
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="56.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24781,14 +25283,14 @@
       <c r="F21" s="10"/>
       <c r="G21" s="21"/>
       <c r="H21" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="56.25">
-      <c r="A22" s="20">
+      <c r="A22" s="23">
         <v>6</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>1067</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -24805,12 +25307,12 @@
         <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="37.5">
-      <c r="A23" s="20"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24823,12 +25325,12 @@
       <c r="F23" s="10"/>
       <c r="G23" s="21"/>
       <c r="H23" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="37.5">
-      <c r="A24" s="20"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24841,12 +25343,12 @@
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="37.5">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24859,14 +25361,14 @@
       <c r="F25" s="10"/>
       <c r="G25" s="21"/>
       <c r="H25" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A26" s="20">
+      <c r="A26" s="23">
         <v>7</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="22" t="s">
         <v>1070</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -24883,12 +25385,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24903,12 +25405,12 @@
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="56.25" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="10" t="s">
         <v>1041</v>
       </c>
@@ -24921,12 +25423,12 @@
       <c r="F28" s="10"/>
       <c r="G28" s="21"/>
       <c r="H28" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="10" t="s">
         <v>1042</v>
       </c>
@@ -24937,14 +25439,14 @@
       <c r="F29" s="10"/>
       <c r="G29" s="21"/>
       <c r="H29" s="3" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="112.5">
-      <c r="A30" s="20">
+      <c r="A30" s="23">
         <v>8</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="22" t="s">
         <v>1075</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -24959,15 +25461,15 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="75">
-      <c r="A31" s="20"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="10" t="s">
         <v>1040</v>
       </c>
@@ -24980,15 +25482,15 @@
       <c r="F31" s="10"/>
       <c r="G31" s="21"/>
       <c r="H31" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="93.75">
-      <c r="A32" s="20"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25001,15 +25503,15 @@
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="3" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="131.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25020,14 +25522,14 @@
       <c r="F33" s="10"/>
       <c r="G33" s="21"/>
       <c r="H33" s="3" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="112.5">
       <c r="A34" s="21">
         <v>9</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="22" t="s">
         <v>1081</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -25046,15 +25548,15 @@
         <v>1</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="56.25">
       <c r="A35" s="21"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25067,15 +25569,15 @@
       <c r="F35" s="10"/>
       <c r="G35" s="21"/>
       <c r="H35" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="56.25">
       <c r="A36" s="21"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25088,12 +25590,12 @@
       <c r="F36" s="10"/>
       <c r="G36" s="21"/>
       <c r="H36" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="86.25" customHeight="1">
       <c r="A37" s="21"/>
-      <c r="B37" s="19"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25104,12 +25606,12 @@
       <c r="F37" s="10"/>
       <c r="G37" s="21"/>
       <c r="H37" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90" customHeight="1">
       <c r="A38" s="21"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="10" t="s">
         <v>1082</v>
       </c>
@@ -25124,14 +25626,14 @@
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="56.25">
-      <c r="A39" s="20">
+      <c r="A39" s="23">
         <v>10</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="22" t="s">
         <v>1088</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -25150,15 +25652,15 @@
         <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="56.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25171,12 +25673,12 @@
       <c r="F40" s="10"/>
       <c r="G40" s="21"/>
       <c r="H40" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="112.5">
-      <c r="A41" s="20"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25187,12 +25689,12 @@
       <c r="F41" s="10"/>
       <c r="G41" s="21"/>
       <c r="H41" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="75">
-      <c r="A42" s="20"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25205,14 +25707,14 @@
       <c r="F42" s="10"/>
       <c r="G42" s="21"/>
       <c r="H42" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="75">
-      <c r="A43" s="20">
+      <c r="A43" s="23">
         <v>11</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="22" t="s">
         <v>1093</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -25231,12 +25733,12 @@
         <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="93.75">
-      <c r="A44" s="20"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25249,12 +25751,12 @@
       <c r="F44" s="10"/>
       <c r="G44" s="21"/>
       <c r="H44" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="56.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25267,12 +25769,12 @@
       <c r="F45" s="10"/>
       <c r="G45" s="21"/>
       <c r="H45" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="75">
-      <c r="A46" s="20"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25284,10 +25786,10 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A47" s="20">
+      <c r="A47" s="23">
         <v>12</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="22" t="s">
         <v>1098</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -25302,12 +25804,12 @@
         <v>1</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25322,12 +25824,12 @@
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25342,12 +25844,12 @@
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25358,12 +25860,12 @@
       <c r="F50" s="10"/>
       <c r="G50" s="21"/>
       <c r="H50" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="10" t="s">
         <v>1082</v>
       </c>
@@ -25374,14 +25876,14 @@
       <c r="F51" s="10"/>
       <c r="G51" s="21"/>
       <c r="H51" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="37.5">
-      <c r="A52" s="20">
+      <c r="A52" s="23">
         <v>13</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="22" t="s">
         <v>1099</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -25398,12 +25900,12 @@
         <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="37.5">
-      <c r="A53" s="20"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25416,12 +25918,12 @@
       <c r="F53" s="10"/>
       <c r="G53" s="21"/>
       <c r="H53" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="37.5">
-      <c r="A54" s="20"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25434,12 +25936,12 @@
       <c r="F54" s="10"/>
       <c r="G54" s="21"/>
       <c r="H54" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="37.5">
-      <c r="A55" s="20"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25450,14 +25952,14 @@
       <c r="F55" s="10"/>
       <c r="G55" s="21"/>
       <c r="H55" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="56.25">
-      <c r="A56" s="20">
+      <c r="A56" s="23">
         <v>14</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="22" t="s">
         <v>1104</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -25474,15 +25976,15 @@
         <v>1</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="56.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25495,12 +25997,12 @@
       <c r="F57" s="10"/>
       <c r="G57" s="21"/>
       <c r="H57" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="56.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25513,12 +26015,12 @@
       <c r="F58" s="10"/>
       <c r="G58" s="21"/>
       <c r="H58" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="56.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="19"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25533,14 +26035,14 @@
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="75">
-      <c r="A60" s="20">
+      <c r="A60" s="23">
         <v>15</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="22" t="s">
         <v>1109</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -25555,15 +26057,15 @@
         <v>1</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="56.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="19"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25574,12 +26076,12 @@
       <c r="F61" s="10"/>
       <c r="G61" s="21"/>
       <c r="H61" s="3" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="93.75">
-      <c r="A62" s="20"/>
-      <c r="B62" s="19"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25590,12 +26092,12 @@
       <c r="F62" s="10"/>
       <c r="G62" s="21"/>
       <c r="H62" s="3" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="56.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="19"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25610,14 +26112,14 @@
       </c>
       <c r="G63" s="21"/>
       <c r="H63" s="3" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="56.25">
-      <c r="A64" s="20">
+      <c r="A64" s="23">
         <v>16</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="22" t="s">
         <v>1114</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -25634,12 +26136,12 @@
         <v>1</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="56.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="19"/>
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="56.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25654,12 +26156,12 @@
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="3" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="56.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="19"/>
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="56.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25672,12 +26174,12 @@
       <c r="F66" s="10"/>
       <c r="G66" s="21"/>
       <c r="H66" s="3" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="37.5">
-      <c r="A67" s="20"/>
-      <c r="B67" s="19"/>
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="37.5">
+      <c r="A67" s="23"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25690,11 +26192,11 @@
       <c r="F67" s="10"/>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:8" ht="56.25">
-      <c r="A68" s="20">
+    <row r="68" spans="1:9" ht="56.25">
+      <c r="A68" s="23">
         <v>17</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="22" t="s">
         <v>1119</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -25710,10 +26212,13 @@
       <c r="G68" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="56.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="19"/>
+      <c r="H68" s="3" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="56.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25728,9 +26233,9 @@
       </c>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:8" ht="37.5">
-      <c r="A70" s="20"/>
-      <c r="B70" s="19"/>
+    <row r="70" spans="1:9" ht="56.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25740,10 +26245,13 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="21"/>
-    </row>
-    <row r="71" spans="1:8" ht="37.5">
-      <c r="A71" s="20"/>
-      <c r="B71" s="19"/>
+      <c r="H70" s="3" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="37.5">
+      <c r="A71" s="23"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25753,62 +26261,74 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="21"/>
-    </row>
-    <row r="72" spans="1:8" ht="56.25">
-      <c r="A72" s="20">
+      <c r="H71" s="3" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="56.25">
+      <c r="A72" s="23">
         <v>18</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="22" t="s">
         <v>1267</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>1039</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1268</v>
+        <v>2148</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="112.5">
-      <c r="A73" s="20"/>
-      <c r="B73" s="19"/>
+      <c r="H72" s="3" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="112.5">
+      <c r="A73" s="23"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="10" t="s">
         <v>1040</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="21"/>
-    </row>
-    <row r="74" spans="1:8" ht="75">
-      <c r="A74" s="20"/>
-      <c r="B74" s="19"/>
+      <c r="H73" s="3" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="75">
+      <c r="A74" s="23"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="10" t="s">
         <v>1041</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>1080</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="1:8" ht="56.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="19"/>
+      <c r="H74" s="3" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="56.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>1047</v>
@@ -25817,19 +26337,22 @@
         <v>1047</v>
       </c>
       <c r="G75" s="21"/>
-    </row>
-    <row r="76" spans="1:8" ht="75">
-      <c r="A76" s="20">
+      <c r="H75" s="3" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="75">
+      <c r="A76" s="23">
         <v>19</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>1039</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>1080</v>
@@ -25838,30 +26361,39 @@
       <c r="G76" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="56.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="19"/>
+      <c r="H76" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="56.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="10" t="s">
         <v>1040</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>1080</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="21"/>
-    </row>
-    <row r="78" spans="1:8" ht="93.75">
-      <c r="A78" s="20"/>
-      <c r="B78" s="19"/>
+      <c r="H77" s="3" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="93.75">
+      <c r="A78" s="23"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="10" t="s">
         <v>1041</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>1047</v>
@@ -25870,26 +26402,32 @@
         <v>1047</v>
       </c>
       <c r="G78" s="21"/>
-    </row>
-    <row r="79" spans="1:8" ht="75">
-      <c r="A79" s="20"/>
-      <c r="B79" s="19"/>
+      <c r="H78" s="3" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="75">
+      <c r="A79" s="23"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="10" t="s">
         <v>1042</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="21"/>
-    </row>
-    <row r="80" spans="1:8" ht="37.5">
-      <c r="A80" s="20">
+      <c r="H79" s="3" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="56.25">
+      <c r="A80" s="23">
         <v>20</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>1276</v>
+      <c r="B80" s="22" t="s">
+        <v>1275</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>1039</v>
@@ -25906,10 +26444,16 @@
       <c r="G80" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="37.5">
-      <c r="A81" s="20"/>
-      <c r="B81" s="19"/>
+      <c r="H80" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="37.5">
+      <c r="A81" s="23"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="10" t="s">
         <v>1040</v>
       </c>
@@ -25921,10 +26465,16 @@
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="1:7" ht="37.5">
-      <c r="A82" s="20"/>
-      <c r="B82" s="19"/>
+      <c r="H81" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="37.5">
+      <c r="A82" s="23"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="10" t="s">
         <v>1041</v>
       </c>
@@ -25935,9 +26485,9 @@
       <c r="F82" s="10"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:7" ht="37.5">
-      <c r="A83" s="20"/>
-      <c r="B83" s="19"/>
+    <row r="83" spans="1:9" ht="37.5">
+      <c r="A83" s="23"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="10" t="s">
         <v>1042</v>
       </c>
@@ -25950,7 +26500,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:9">
       <c r="G84" s="9">
         <f>SUM(G2:G83)</f>
         <v>14</v>
@@ -25958,19 +26508,38 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="G2:G5"/>
@@ -25987,38 +26556,19 @@
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="A76:A79"/>
     <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="G72:G75"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -26036,18 +26586,21 @@
     <hyperlink ref="I39" r:id="rId12" xr:uid="{2F38B66D-CCCF-42CA-BE3D-5FEA8C53EDFB}"/>
     <hyperlink ref="I56" r:id="rId13" xr:uid="{42000676-C3DC-421D-836F-EA793970CF2D}"/>
     <hyperlink ref="I60" r:id="rId14" xr:uid="{DD191D60-D624-4A98-B2EF-C440146EE471}"/>
+    <hyperlink ref="I76" r:id="rId15" xr:uid="{30CF3F4F-5960-47CB-9920-9D9EA18EAE48}"/>
+    <hyperlink ref="I80" r:id="rId16" xr:uid="{F8F47FC1-9832-4669-83AF-E900A6253A2C}"/>
+    <hyperlink ref="I81" r:id="rId17" xr:uid="{9AC819C0-647A-4099-A8A6-4E1217334D73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F82706-5ADB-4244-9B11-DBC406A267BC}">
-  <dimension ref="A1:AG356"/>
+  <dimension ref="A1:AG369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q359" sqref="Q359"/>
+    <sheetView topLeftCell="A363" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC377" sqref="AC377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -26060,65 +26613,65 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D6" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="D7" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -26126,74 +26679,74 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="18" spans="25:33">
       <c r="Y18" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="25:33">
       <c r="Z19" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AG19" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="20" spans="25:33">
       <c r="Z20" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="AG20" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="21" spans="25:33">
       <c r="Z21" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="AG21" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="22" spans="25:33">
       <c r="Z22" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="AG22" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="24" spans="25:33">
       <c r="Y24" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="25" spans="25:33">
       <c r="Z25" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="AG25" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="26" spans="25:33">
       <c r="Z26" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="AG26" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="27" spans="25:33">
       <c r="Z27" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AG27" t="s">
         <v>1950</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -26201,12 +26754,12 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -26214,17 +26767,17 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="C39" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="C40" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -26232,22 +26785,22 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="C44" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="C45" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="C46" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -26255,12 +26808,12 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="C50" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -26268,12 +26821,12 @@
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="C54" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -26281,12 +26834,12 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="O57" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -26294,7 +26847,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -26302,7 +26855,7 @@
         <v>2</v>
       </c>
       <c r="P60" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -26310,7 +26863,7 @@
         <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="70" spans="2:12">
@@ -26318,70 +26871,70 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="72" spans="2:12">
       <c r="C72" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="74" spans="2:12">
       <c r="C74" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E74" t="s">
         <v>1972</v>
       </c>
-      <c r="E74" t="s">
-        <v>1973</v>
-      </c>
       <c r="K74" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="75" spans="2:12">
       <c r="E75" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="K75" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="76" spans="2:12">
       <c r="E76" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="K76" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="77" spans="2:12">
       <c r="F77" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="L77" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="78" spans="2:12">
       <c r="E78" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K78" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="79" spans="2:12">
       <c r="F79" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="80" spans="2:12">
       <c r="F80" s="18" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="F81" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -26389,89 +26942,89 @@
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="C91" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I91" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="I92" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="C93" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I93" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="I94" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="C95" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="C96" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="C97" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I97" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="C98" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I98" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="C99" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="C100" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="C101" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -26479,12 +27032,12 @@
         <v>6</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -26492,7 +27045,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -26500,7 +27053,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -26508,12 +27061,12 @@
         <v>7</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -26521,10 +27074,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G114" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -26532,10 +27085,10 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G115" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -26543,10 +27096,10 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G116" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -26554,15 +27107,15 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G117" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="G118" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -26570,10 +27123,10 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G119" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -26581,7 +27134,7 @@
         <v>8</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -26589,10 +27142,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G123" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -26600,10 +27153,10 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G124" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -26611,17 +27164,17 @@
         <v>9</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="B142" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="B144" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -26629,7 +27182,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="146" spans="1:27">
@@ -26637,7 +27190,7 @@
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="148" spans="1:27">
@@ -26645,12 +27198,12 @@
         <v>10</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="150" spans="1:27">
       <c r="B150" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -26658,22 +27211,22 @@
         <v>11</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="153" spans="1:27">
       <c r="W153" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="155" spans="1:27">
       <c r="W155" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="156" spans="1:27">
       <c r="W156" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="158" spans="1:27">
@@ -26681,10 +27234,10 @@
         <v>1</v>
       </c>
       <c r="X158" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="AA158" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="159" spans="1:27">
@@ -26692,10 +27245,10 @@
         <v>2</v>
       </c>
       <c r="X159" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="AA159" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -26703,10 +27256,10 @@
         <v>3</v>
       </c>
       <c r="X160" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="AA160" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -26714,12 +27267,12 @@
         <v>12</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="B168" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -26727,7 +27280,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -26735,7 +27288,7 @@
         <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -26743,17 +27296,17 @@
         <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="B174" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="B175" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="193" spans="2:4">
@@ -26761,7 +27314,7 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="195" spans="2:4">
@@ -26769,12 +27322,12 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="197" spans="2:4">
       <c r="D197" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="199" spans="2:4">
@@ -26782,12 +27335,12 @@
         <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="201" spans="2:4">
       <c r="D201" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="203" spans="2:4">
@@ -26795,17 +27348,17 @@
         <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="D205" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="206" spans="2:4">
       <c r="D206" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="208" spans="2:4">
@@ -26813,12 +27366,12 @@
         <v>4</v>
       </c>
       <c r="D208" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="210" spans="1:17">
       <c r="D210" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="212" spans="1:17">
@@ -26826,12 +27379,12 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="214" spans="1:17">
       <c r="D214" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="216" spans="1:17">
@@ -26839,17 +27392,17 @@
         <v>13</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="218" spans="1:17">
       <c r="B218" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="219" spans="1:17">
       <c r="B219" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="221" spans="1:17">
@@ -26857,22 +27410,22 @@
         <v>1</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="223" spans="1:17">
       <c r="Q223" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="225" spans="2:17">
       <c r="Q225" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="226" spans="2:17">
       <c r="Q226" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="232" spans="2:17">
@@ -26880,22 +27433,22 @@
         <v>2</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="234" spans="2:17">
       <c r="Q234" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="235" spans="2:17">
       <c r="Q235" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="236" spans="2:17">
       <c r="Q236" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="243" spans="2:17">
@@ -26903,22 +27456,22 @@
         <v>3</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="246" spans="2:17">
       <c r="Q246" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="247" spans="2:17">
       <c r="Q247" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="248" spans="2:17">
       <c r="Q248" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="254" spans="2:17">
@@ -26926,17 +27479,17 @@
         <v>4</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="256" spans="2:17">
       <c r="Q256" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="258" spans="1:17">
       <c r="Q258" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="265" spans="1:17">
@@ -26944,12 +27497,12 @@
         <v>14</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="267" spans="1:17">
       <c r="B267" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="269" spans="1:17">
@@ -26957,17 +27510,17 @@
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="271" spans="1:17">
       <c r="C271" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="272" spans="1:17">
       <c r="C272" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -26975,17 +27528,17 @@
         <v>2</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="C276" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="C277" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -26993,7 +27546,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -27001,10 +27554,10 @@
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G281" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -27012,10 +27565,10 @@
         <v>2</v>
       </c>
       <c r="C282" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G282" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -27023,10 +27576,10 @@
         <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G283" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -27034,22 +27587,22 @@
         <v>16</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="B287" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="B288" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="B290" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -27057,17 +27610,17 @@
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="C294" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="C295" s="15" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -27075,12 +27628,12 @@
         <v>17</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="B299" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -27088,7 +27641,7 @@
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -27096,17 +27649,17 @@
         <v>1</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="305" spans="3:4">
       <c r="D305" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="307" spans="3:4">
       <c r="D307" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="309" spans="3:4">
@@ -27114,17 +27667,17 @@
         <v>2</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="311" spans="3:4">
       <c r="D311" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="313" spans="3:4">
       <c r="D313" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="315" spans="3:4">
@@ -27132,27 +27685,27 @@
         <v>3</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="317" spans="3:4">
       <c r="D317" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="319" spans="3:4">
       <c r="D319" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="320" spans="3:4">
       <c r="D320" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="D321" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -27160,22 +27713,22 @@
         <v>18</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="B338" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="B339" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="B341" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -27183,7 +27736,7 @@
         <v>1</v>
       </c>
       <c r="C343" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -27191,7 +27744,7 @@
         <v>2</v>
       </c>
       <c r="C344" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -27199,7 +27752,7 @@
         <v>3</v>
       </c>
       <c r="C345" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -27207,7 +27760,7 @@
         <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -27215,27 +27768,27 @@
         <v>19</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="B350" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="C352" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="C353" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="C354" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -27243,7 +27796,55 @@
         <v>20</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="B358" t="s">
         <v>2136</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="B359" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="B360" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="B361" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="C365" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="C366" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="C368" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369" t="s">
+        <v>2144</v>
       </c>
     </row>
   </sheetData>
@@ -27275,40 +27876,40 @@
     <row r="3" spans="1:3" s="15" customFormat="1"/>
     <row r="4" spans="1:3" s="15" customFormat="1">
       <c r="B4" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="15" customFormat="1"/>
     <row r="6" spans="1:3" s="15" customFormat="1">
       <c r="B6" s="15" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="15" customFormat="1">
       <c r="B7" s="15" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1"/>
     <row r="9" spans="1:3" s="15" customFormat="1">
       <c r="B9" s="15" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="15" customFormat="1">
       <c r="B10" s="15" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="15" customFormat="1">
       <c r="B11" s="15" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="15" customFormat="1"/>
     <row r="13" spans="1:3" s="15" customFormat="1">
       <c r="B13" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="15" customFormat="1"/>
@@ -27317,13 +27918,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="15" customFormat="1"/>
     <row r="17" spans="2:3" s="15" customFormat="1">
       <c r="C17" s="15" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="15" customFormat="1"/>
@@ -27332,18 +27933,18 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="15" customFormat="1"/>
     <row r="21" spans="2:3" s="15" customFormat="1">
       <c r="C21" s="15" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="22" spans="2:3" s="15" customFormat="1">
       <c r="C22" s="15" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="23" spans="2:3" s="15" customFormat="1"/>
@@ -27352,18 +27953,18 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="25" spans="2:3" s="15" customFormat="1"/>
     <row r="26" spans="2:3" s="15" customFormat="1">
       <c r="C26" s="15" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="27" spans="2:3" s="15" customFormat="1">
       <c r="C27" s="15" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="28" spans="2:3" s="15" customFormat="1"/>
@@ -27372,43 +27973,43 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="30" spans="2:3" s="15" customFormat="1"/>
     <row r="31" spans="2:3" s="15" customFormat="1">
       <c r="C31" s="15" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="32" spans="2:3" s="15" customFormat="1">
       <c r="C32" s="15" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="33" spans="2:3" s="15" customFormat="1">
       <c r="C33" s="15" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="34" spans="2:3" s="15" customFormat="1">
       <c r="C34" s="15" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="35" spans="2:3" s="15" customFormat="1">
       <c r="C35" s="15" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="36" spans="2:3" s="15" customFormat="1">
       <c r="C36" s="15" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="37" spans="2:3" s="15" customFormat="1">
       <c r="C37" s="15" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="38" spans="2:3" s="15" customFormat="1"/>
@@ -27417,34 +28018,34 @@
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="40" spans="2:3" s="15" customFormat="1"/>
     <row r="41" spans="2:3" s="15" customFormat="1">
       <c r="C41" s="15" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="42" spans="2:3" s="15" customFormat="1">
       <c r="C42" s="15" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="43" spans="2:3" s="15" customFormat="1">
       <c r="C43" s="15" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="44" spans="2:3" s="15" customFormat="1">
       <c r="C44" s="15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="45" spans="2:3" s="15" customFormat="1"/>
     <row r="46" spans="2:3" s="15" customFormat="1">
       <c r="B46" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="47" spans="2:3" s="15" customFormat="1"/>
@@ -27453,18 +28054,18 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="49" spans="2:3" s="15" customFormat="1"/>
     <row r="50" spans="2:3" s="15" customFormat="1">
       <c r="C50" s="15" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="51" spans="2:3" s="15" customFormat="1">
       <c r="C51" s="15" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="52" spans="2:3" s="15" customFormat="1"/>
@@ -27473,18 +28074,18 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="54" spans="2:3" s="15" customFormat="1"/>
     <row r="55" spans="2:3" s="15" customFormat="1">
       <c r="C55" s="15" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="56" spans="2:3" s="15" customFormat="1">
       <c r="C56" s="15" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="57" spans="2:3" s="15" customFormat="1"/>
@@ -27493,23 +28094,23 @@
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="59" spans="2:3" s="15" customFormat="1"/>
     <row r="60" spans="2:3" s="15" customFormat="1">
       <c r="C60" s="15" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="61" spans="2:3" s="15" customFormat="1">
       <c r="C61" s="15" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="62" spans="2:3" s="15" customFormat="1">
       <c r="C62" s="15" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="63" spans="2:3" s="15" customFormat="1"/>
@@ -27518,44 +28119,44 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="65" spans="2:3" s="15" customFormat="1"/>
     <row r="66" spans="2:3" s="15" customFormat="1">
       <c r="C66" s="15" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="67" spans="2:3" s="15" customFormat="1">
       <c r="C67" s="15" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="68" spans="2:3" s="15" customFormat="1">
       <c r="C68" s="15" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="69" spans="2:3" s="15" customFormat="1">
       <c r="C69" s="15" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="70" spans="2:3" s="15" customFormat="1"/>
     <row r="71" spans="2:3" s="15" customFormat="1">
       <c r="C71" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="72" spans="2:3" s="15" customFormat="1">
       <c r="C72" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="73" spans="2:3" s="15" customFormat="1">
       <c r="C73" s="15" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="74" spans="2:3" s="15" customFormat="1"/>
@@ -27564,18 +28165,18 @@
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="76" spans="2:3" s="15" customFormat="1"/>
     <row r="77" spans="2:3" s="15" customFormat="1">
       <c r="C77" s="15" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="78" spans="2:3" s="15" customFormat="1">
       <c r="C78" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="79" spans="2:3" s="15" customFormat="1"/>
@@ -27584,23 +28185,23 @@
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="81" spans="2:3" s="15" customFormat="1"/>
     <row r="82" spans="2:3" s="15" customFormat="1">
       <c r="C82" s="15" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="83" spans="2:3" s="15" customFormat="1">
       <c r="C83" s="15" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="84" spans="2:3" s="15" customFormat="1">
       <c r="C84" s="15" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="85" spans="2:3" s="15" customFormat="1"/>
@@ -27615,27 +28216,27 @@
     <row r="87" spans="2:3" s="15" customFormat="1"/>
     <row r="88" spans="2:3" s="15" customFormat="1">
       <c r="C88" s="15" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="89" spans="2:3" s="15" customFormat="1">
       <c r="C89" s="15" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="90" spans="2:3" s="15" customFormat="1">
       <c r="C90" s="15" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="91" spans="2:3" s="15" customFormat="1">
       <c r="C91" s="15" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="92" spans="2:3" s="15" customFormat="1">
       <c r="C92" s="15" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="93" spans="2:3" s="15" customFormat="1"/>
@@ -27644,28 +28245,28 @@
         <v>8</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="95" spans="2:3" s="15" customFormat="1"/>
     <row r="96" spans="2:3" s="15" customFormat="1">
       <c r="C96" s="15" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="97" spans="3:3" s="15" customFormat="1">
       <c r="C97" s="15" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="98" spans="3:3" s="15" customFormat="1">
       <c r="C98" s="15" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="99" spans="3:3" s="15" customFormat="1">
       <c r="C99" s="15" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="100" spans="3:3" s="15" customFormat="1"/>
@@ -27696,257 +28297,257 @@
     </row>
     <row r="120" spans="1:2">
       <c r="B120" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="B122" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="B123" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="B124" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="B125" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="B126" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="B127" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="129" spans="2:21">
       <c r="B129" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="131" spans="2:21">
+      <c r="B131" s="26" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="131" spans="2:21">
-      <c r="B131" s="25" t="s">
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26" t="s">
+        <v>1351</v>
+      </c>
+      <c r="M131" s="26"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="26"/>
+      <c r="P131" s="26"/>
+      <c r="Q131" s="26" t="s">
+        <v>1352</v>
+      </c>
+      <c r="R131" s="26"/>
+      <c r="S131" s="26"/>
+      <c r="T131" s="26"/>
+      <c r="U131" s="26"/>
+    </row>
+    <row r="132" spans="2:21">
+      <c r="B132" s="25" t="s">
         <v>1346</v>
       </c>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="25" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M131" s="25"/>
-      <c r="N131" s="25"/>
-      <c r="O131" s="25"/>
-      <c r="P131" s="25"/>
-      <c r="Q131" s="25" t="s">
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="24" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M132" s="24"/>
+      <c r="N132" s="24"/>
+      <c r="O132" s="24"/>
+      <c r="P132" s="24"/>
+      <c r="Q132" s="24" t="s">
+        <v>1357</v>
+      </c>
+      <c r="R132" s="24"/>
+      <c r="S132" s="24"/>
+      <c r="T132" s="24"/>
+      <c r="U132" s="24"/>
+    </row>
+    <row r="133" spans="2:21">
+      <c r="B133" s="25" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="24" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M133" s="24"/>
+      <c r="N133" s="24"/>
+      <c r="O133" s="24"/>
+      <c r="P133" s="24"/>
+      <c r="Q133" s="24" t="s">
+        <v>1357</v>
+      </c>
+      <c r="R133" s="24"/>
+      <c r="S133" s="24"/>
+      <c r="T133" s="24"/>
+      <c r="U133" s="24"/>
+    </row>
+    <row r="134" spans="2:21">
+      <c r="B134" s="25" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="24" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M134" s="24"/>
+      <c r="N134" s="24"/>
+      <c r="O134" s="24"/>
+      <c r="P134" s="24"/>
+      <c r="Q134" s="24" t="s">
+        <v>1358</v>
+      </c>
+      <c r="R134" s="24"/>
+      <c r="S134" s="24"/>
+      <c r="T134" s="24"/>
+      <c r="U134" s="24"/>
+    </row>
+    <row r="135" spans="2:21">
+      <c r="B135" s="25" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="24" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24" t="s">
         <v>1353</v>
       </c>
-      <c r="R131" s="25"/>
-      <c r="S131" s="25"/>
-      <c r="T131" s="25"/>
-      <c r="U131" s="25"/>
-    </row>
-    <row r="132" spans="2:21">
-      <c r="B132" s="24" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="26" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="26"/>
-      <c r="K132" s="26"/>
-      <c r="L132" s="26" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M132" s="26"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="26"/>
-      <c r="P132" s="26"/>
-      <c r="Q132" s="26" t="s">
-        <v>1358</v>
-      </c>
-      <c r="R132" s="26"/>
-      <c r="S132" s="26"/>
-      <c r="T132" s="26"/>
-      <c r="U132" s="26"/>
-    </row>
-    <row r="133" spans="2:21">
-      <c r="B133" s="24" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="26" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
-      <c r="K133" s="26"/>
-      <c r="L133" s="26" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M133" s="26"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="26"/>
-      <c r="P133" s="26"/>
-      <c r="Q133" s="26" t="s">
-        <v>1358</v>
-      </c>
-      <c r="R133" s="26"/>
-      <c r="S133" s="26"/>
-      <c r="T133" s="26"/>
-      <c r="U133" s="26"/>
-    </row>
-    <row r="134" spans="2:21">
-      <c r="B134" s="24" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="26" t="s">
-        <v>1357</v>
-      </c>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
-      <c r="K134" s="26"/>
-      <c r="L134" s="26" t="s">
-        <v>1357</v>
-      </c>
-      <c r="M134" s="26"/>
-      <c r="N134" s="26"/>
-      <c r="O134" s="26"/>
-      <c r="P134" s="26"/>
-      <c r="Q134" s="26" t="s">
+      <c r="M135" s="24"/>
+      <c r="N135" s="24"/>
+      <c r="O135" s="24"/>
+      <c r="P135" s="24"/>
+      <c r="Q135" s="24" t="s">
         <v>1359</v>
       </c>
-      <c r="R134" s="26"/>
-      <c r="S134" s="26"/>
-      <c r="T134" s="26"/>
-      <c r="U134" s="26"/>
-    </row>
-    <row r="135" spans="2:21">
-      <c r="B135" s="24" t="s">
+      <c r="R135" s="24"/>
+      <c r="S135" s="24"/>
+      <c r="T135" s="24"/>
+      <c r="U135" s="24"/>
+    </row>
+    <row r="136" spans="2:21">
+      <c r="B136" s="25" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="24" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M136" s="24"/>
+      <c r="N136" s="24"/>
+      <c r="O136" s="24"/>
+      <c r="P136" s="24"/>
+      <c r="Q136" s="24" t="s">
+        <v>1360</v>
+      </c>
+      <c r="R136" s="24"/>
+      <c r="S136" s="24"/>
+      <c r="T136" s="24"/>
+      <c r="U136" s="24"/>
+    </row>
+    <row r="137" spans="2:21">
+      <c r="B137" s="25" t="s">
         <v>1350</v>
       </c>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="26" t="s">
-        <v>1360</v>
-      </c>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="26"/>
-      <c r="L135" s="26" t="s">
-        <v>1354</v>
-      </c>
-      <c r="M135" s="26"/>
-      <c r="N135" s="26"/>
-      <c r="O135" s="26"/>
-      <c r="P135" s="26"/>
-      <c r="Q135" s="26" t="s">
-        <v>1360</v>
-      </c>
-      <c r="R135" s="26"/>
-      <c r="S135" s="26"/>
-      <c r="T135" s="26"/>
-      <c r="U135" s="26"/>
-    </row>
-    <row r="136" spans="2:21">
-      <c r="B136" s="24" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="26" t="s">
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="24" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24" t="s">
         <v>1361</v>
       </c>
-      <c r="H136" s="26"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26"/>
-      <c r="K136" s="26"/>
-      <c r="L136" s="26" t="s">
-        <v>1355</v>
-      </c>
-      <c r="M136" s="26"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="26"/>
-      <c r="P136" s="26"/>
-      <c r="Q136" s="26" t="s">
+      <c r="M137" s="24"/>
+      <c r="N137" s="24"/>
+      <c r="O137" s="24"/>
+      <c r="P137" s="24"/>
+      <c r="Q137" s="24" t="s">
         <v>1361</v>
       </c>
-      <c r="R136" s="26"/>
-      <c r="S136" s="26"/>
-      <c r="T136" s="26"/>
-      <c r="U136" s="26"/>
-    </row>
-    <row r="137" spans="2:21">
-      <c r="B137" s="24" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="26" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
-      <c r="J137" s="26"/>
-      <c r="K137" s="26"/>
-      <c r="L137" s="26" t="s">
-        <v>1362</v>
-      </c>
-      <c r="M137" s="26"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="26"/>
-      <c r="P137" s="26"/>
-      <c r="Q137" s="26" t="s">
-        <v>1362</v>
-      </c>
-      <c r="R137" s="26"/>
-      <c r="S137" s="26"/>
-      <c r="T137" s="26"/>
-      <c r="U137" s="26"/>
+      <c r="R137" s="24"/>
+      <c r="S137" s="24"/>
+      <c r="T137" s="24"/>
+      <c r="U137" s="24"/>
     </row>
     <row r="139" spans="2:21">
       <c r="B139" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="141" spans="2:21">
@@ -27954,67 +28555,67 @@
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="143" spans="2:21">
       <c r="C143" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="144" spans="2:21">
       <c r="C144" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="C145" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="C146" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="C148" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="149" spans="2:3">
       <c r="C149" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="C150" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="C151" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="C152" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="C153" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="C154" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="C155" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="158" spans="2:3">
@@ -28022,57 +28623,57 @@
         <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="C160" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="C161" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="C162" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="C163" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="C164" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="C166" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="C167" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="C168" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="C169" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="C170" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="172" spans="2:3">
@@ -28080,77 +28681,77 @@
         <v>3</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="174" spans="2:3">
       <c r="C174" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="175" spans="2:3">
       <c r="C175" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="176" spans="2:3">
       <c r="C176" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="C177" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="178" spans="2:4">
       <c r="C178" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="C180" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="C181" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="C182" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="183" spans="2:4">
       <c r="C183" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="C184" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="C185" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="187" spans="2:4">
       <c r="C187" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="C188" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="C189" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="191" spans="2:4">
@@ -28158,33 +28759,33 @@
         <v>4</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D191" s="1"/>
     </row>
     <row r="193" spans="2:3">
       <c r="C193" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="194" spans="2:3">
       <c r="C194" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="195" spans="2:3">
       <c r="C195" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="196" spans="2:3">
       <c r="C196" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="200" spans="2:3">
@@ -28192,17 +28793,17 @@
         <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="202" spans="2:3">
       <c r="C202" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="203" spans="2:3">
       <c r="C203" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="205" spans="2:3">
@@ -28210,17 +28811,17 @@
         <v>2</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="207" spans="2:3">
       <c r="C207" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="208" spans="2:3">
       <c r="C208" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="210" spans="2:3">
@@ -28228,17 +28829,17 @@
         <v>3</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="212" spans="2:3">
       <c r="C212" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="213" spans="2:3">
       <c r="C213" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="215" spans="2:3">
@@ -28246,17 +28847,17 @@
         <v>4</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="217" spans="2:3">
       <c r="C217" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="C218" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="220" spans="2:3">
@@ -28264,12 +28865,12 @@
         <v>5</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="C222" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="224" spans="2:3">
@@ -28277,12 +28878,12 @@
         <v>6</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="C226" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -28290,12 +28891,12 @@
         <v>7</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="C230" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -28308,92 +28909,92 @@
     </row>
     <row r="238" spans="1:3">
       <c r="B238" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="B240" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C242" t="s">
         <v>1366</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C243" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C244" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="245" spans="2:3">
       <c r="C245" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C246" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="247" spans="2:3">
       <c r="B247" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C247" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="251" spans="2:3">
       <c r="B251" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="252" spans="2:3">
       <c r="B252" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="253" spans="2:3">
       <c r="B253" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="260" spans="2:3">
@@ -28401,17 +29002,17 @@
         <v>1</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="262" spans="2:3">
       <c r="C262" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="263" spans="2:3">
       <c r="C263" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="265" spans="2:3">
@@ -28419,32 +29020,32 @@
         <v>2</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="267" spans="2:3">
       <c r="C267" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="268" spans="2:3">
       <c r="C268" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="269" spans="2:3">
       <c r="C269" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="270" spans="2:3">
       <c r="C270" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="271" spans="2:3">
       <c r="C271" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="273" spans="2:3">
@@ -28452,27 +29053,27 @@
         <v>3</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="275" spans="2:3">
       <c r="C275" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="276" spans="2:3">
       <c r="C276" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="277" spans="2:3">
       <c r="C277" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="278" spans="2:3">
       <c r="C278" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="280" spans="2:3">
@@ -28480,17 +29081,17 @@
         <v>4</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="282" spans="2:3">
       <c r="C282" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="283" spans="2:3">
       <c r="C283" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="285" spans="2:3">
@@ -28498,47 +29099,47 @@
         <v>5</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="287" spans="2:3">
       <c r="C287" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="288" spans="2:3">
       <c r="C288" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="289" spans="3:3">
       <c r="C289" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="290" spans="3:3">
       <c r="C290" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="291" spans="3:3">
       <c r="C291" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="293" spans="3:3">
       <c r="C293" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="294" spans="3:3">
       <c r="C294" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="295" spans="3:3">
       <c r="C295" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -28551,37 +29152,37 @@
     </row>
     <row r="315" spans="1:2">
       <c r="B315" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="B317" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="B319" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="B320" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="321" spans="2:3">
       <c r="B321" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="323" spans="2:3">
       <c r="B323" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="324" spans="2:3">
       <c r="B324" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="326" spans="2:3">
@@ -28589,22 +29190,22 @@
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="328" spans="2:3">
       <c r="C328" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="329" spans="2:3">
       <c r="C329" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="330" spans="2:3">
       <c r="C330" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="332" spans="2:3">
@@ -28612,22 +29213,22 @@
         <v>2</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="334" spans="2:3">
       <c r="C334" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="335" spans="2:3">
       <c r="C335" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="336" spans="2:3">
       <c r="C336" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="338" spans="2:3">
@@ -28635,42 +29236,42 @@
         <v>3</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="340" spans="2:3">
       <c r="C340" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="341" spans="2:3">
       <c r="C341" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="342" spans="2:3">
       <c r="C342" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="343" spans="2:3">
       <c r="C343" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="345" spans="2:3">
       <c r="C345" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="347" spans="2:3">
       <c r="B347" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="349" spans="2:3">
       <c r="B349" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="351" spans="2:3">
@@ -28678,17 +29279,17 @@
         <v>1</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="353" spans="2:3">
       <c r="C353" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="354" spans="2:3">
       <c r="C354" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="356" spans="2:3">
@@ -28696,17 +29297,17 @@
         <v>2</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="358" spans="2:3">
       <c r="C358" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="359" spans="2:3">
       <c r="C359" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="361" spans="2:3">
@@ -28714,22 +29315,22 @@
         <v>3</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="363" spans="2:3">
       <c r="C363" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="364" spans="2:3">
       <c r="C364" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="365" spans="2:3">
       <c r="C365" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="367" spans="2:3">
@@ -28737,17 +29338,17 @@
         <v>4</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="369" spans="2:3">
       <c r="C369" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="370" spans="2:3">
       <c r="C370" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="372" spans="2:3">
@@ -28755,22 +29356,22 @@
         <v>5</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="374" spans="2:3">
       <c r="C374" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="375" spans="2:3">
       <c r="C375" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="376" spans="2:3">
       <c r="C376" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -28783,47 +29384,47 @@
     </row>
     <row r="393" spans="1:2">
       <c r="B393" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="B395" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="B396" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="B397" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="B399" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="B400" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="401" spans="2:3">
       <c r="B401" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="402" spans="2:3">
       <c r="B402" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="403" spans="2:3">
       <c r="B403" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="405" spans="2:3">
@@ -28831,32 +29432,32 @@
         <v>1</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="407" spans="2:3">
       <c r="C407" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="408" spans="2:3">
       <c r="C408" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="409" spans="2:3">
       <c r="C409" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="410" spans="2:3">
       <c r="C410" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="411" spans="2:3">
       <c r="C411" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="413" spans="2:3">
@@ -28864,37 +29465,37 @@
         <v>2</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="415" spans="2:3">
       <c r="C415" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="416" spans="2:3">
       <c r="C416" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="417" spans="2:3">
       <c r="C417" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="418" spans="2:3">
       <c r="C418" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="419" spans="2:3">
       <c r="C419" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="420" spans="2:3">
       <c r="C420" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="422" spans="2:3">
@@ -28902,22 +29503,22 @@
         <v>3</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="424" spans="2:3">
       <c r="C424" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="425" spans="2:3">
       <c r="C425" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="426" spans="2:3">
       <c r="C426" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="428" spans="2:3">
@@ -28925,22 +29526,22 @@
         <v>4</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="430" spans="2:3">
       <c r="C430" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="431" spans="2:3">
       <c r="C431" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="432" spans="2:3">
       <c r="C432" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="434" spans="2:3">
@@ -28948,32 +29549,32 @@
         <v>5</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="436" spans="2:3">
       <c r="C436" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="437" spans="2:3">
       <c r="C437" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="438" spans="2:3">
       <c r="C438" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="439" spans="2:3">
       <c r="C439" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="441" spans="2:3">
       <c r="B441" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="443" spans="2:3">
@@ -28981,12 +29582,12 @@
         <v>1</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="445" spans="2:3">
       <c r="C445" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="447" spans="2:3">
@@ -28994,17 +29595,17 @@
         <v>2</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="449" spans="2:3">
       <c r="C449" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="450" spans="2:3">
       <c r="C450" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="452" spans="2:3">
@@ -29012,17 +29613,17 @@
         <v>3</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="454" spans="2:3">
       <c r="C454" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="455" spans="2:3">
       <c r="C455" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="457" spans="2:3">
@@ -29035,17 +29636,17 @@
     </row>
     <row r="459" spans="2:3">
       <c r="C459" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="460" spans="2:3">
       <c r="C460" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="461" spans="2:3">
       <c r="C461" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="463" spans="2:3">
@@ -29053,17 +29654,17 @@
         <v>5</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="465" spans="2:3">
       <c r="C465" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="466" spans="2:3">
       <c r="C466" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="468" spans="2:3">
@@ -29071,17 +29672,17 @@
         <v>6</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="470" spans="2:3">
       <c r="C470" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="471" spans="2:3">
       <c r="C471" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -29094,47 +29695,47 @@
     </row>
     <row r="511" spans="1:2">
       <c r="B511" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="B512" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="514" spans="2:3">
       <c r="B514" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="516" spans="2:3">
       <c r="B516" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="517" spans="2:3">
       <c r="B517" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="518" spans="2:3">
       <c r="B518" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="520" spans="2:3">
       <c r="B520" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="521" spans="2:3">
       <c r="B521" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="522" spans="2:3">
       <c r="B522" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="524" spans="2:3">
@@ -29142,52 +29743,52 @@
         <v>1</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="526" spans="2:3">
       <c r="C526" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="527" spans="2:3">
       <c r="C527" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="529" spans="2:3">
       <c r="C529" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="530" spans="2:3">
       <c r="C530" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="531" spans="2:3">
       <c r="C531" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="533" spans="2:3">
       <c r="C533" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="534" spans="2:3">
       <c r="C534" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="536" spans="2:3">
       <c r="C536" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="537" spans="2:3">
       <c r="C537" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="539" spans="2:3">
@@ -29195,62 +29796,62 @@
         <v>2</v>
       </c>
       <c r="C539" s="17" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="541" spans="2:3">
       <c r="C541" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="542" spans="2:3">
       <c r="C542" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="544" spans="2:3">
       <c r="C544" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="545" spans="2:3">
       <c r="C545" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="546" spans="2:3">
       <c r="C546" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="548" spans="2:3">
       <c r="C548" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="549" spans="2:3">
       <c r="C549" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="550" spans="2:3">
       <c r="C550" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="551" spans="2:3">
       <c r="C551" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="552" spans="2:3">
       <c r="C552" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="553" spans="2:3">
       <c r="C553" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="555" spans="2:3">
@@ -29258,47 +29859,47 @@
         <v>3</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="557" spans="2:3">
       <c r="C557" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="558" spans="2:3">
       <c r="C558" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="559" spans="2:3">
       <c r="C559" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="561" spans="2:3">
       <c r="C561" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="563" spans="2:3">
       <c r="C563" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="564" spans="2:3">
       <c r="C564" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="565" spans="2:3">
       <c r="C565" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="566" spans="2:3">
       <c r="C566" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="568" spans="2:3">
@@ -29306,37 +29907,37 @@
         <v>4</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="570" spans="2:3">
       <c r="C570" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="571" spans="2:3">
       <c r="C571" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="572" spans="2:3">
       <c r="C572" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="574" spans="2:3">
       <c r="C574" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="575" spans="2:3">
       <c r="C575" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="577" spans="2:3">
       <c r="B577" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="579" spans="2:3">
@@ -29344,17 +29945,17 @@
         <v>1</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="581" spans="2:3">
       <c r="C581" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="582" spans="2:3">
       <c r="C582" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="584" spans="2:3">
@@ -29362,22 +29963,22 @@
         <v>2</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="586" spans="2:3">
       <c r="C586" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="587" spans="2:3">
       <c r="C587" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="588" spans="2:3">
       <c r="C588" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="590" spans="2:3">
@@ -29385,17 +29986,17 @@
         <v>3</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="592" spans="2:3">
       <c r="C592" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="593" spans="2:3">
       <c r="C593" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="595" spans="2:3">
@@ -29403,17 +30004,17 @@
         <v>4</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="597" spans="2:3">
       <c r="C597" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="598" spans="2:3">
       <c r="C598" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="600" spans="2:3">
@@ -29421,17 +30022,17 @@
         <v>5</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="602" spans="2:3">
       <c r="C602" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="603" spans="2:3">
       <c r="C603" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="605" spans="2:3">
@@ -29439,22 +30040,22 @@
         <v>6</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="607" spans="2:3">
       <c r="C607" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="608" spans="2:3">
       <c r="C608" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="609" spans="2:3">
       <c r="C609" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="611" spans="2:3">
@@ -29462,27 +30063,27 @@
         <v>7</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="613" spans="2:3">
       <c r="C613" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="614" spans="2:3">
       <c r="C614" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="615" spans="2:3">
       <c r="C615" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="616" spans="2:3">
       <c r="C616" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29495,52 +30096,52 @@
     </row>
     <row r="628" spans="1:2">
       <c r="B628" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="B630" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="B631" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="B632" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="B634" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="B635" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="B637" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="B638" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="B639" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="641" spans="2:3">
       <c r="B641" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="643" spans="2:3">
@@ -29548,32 +30149,32 @@
         <v>1</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="645" spans="2:3">
       <c r="C645" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="646" spans="2:3">
       <c r="C646" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="647" spans="2:3">
       <c r="C647" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="648" spans="2:3">
       <c r="C648" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="649" spans="2:3">
       <c r="C649" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="651" spans="2:3">
@@ -29581,27 +30182,27 @@
         <v>2</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="653" spans="2:3">
       <c r="C653" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="654" spans="2:3">
       <c r="C654" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="655" spans="2:3">
       <c r="C655" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="656" spans="2:3">
       <c r="C656" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="658" spans="2:3">
@@ -29609,32 +30210,32 @@
         <v>3</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="660" spans="2:3">
       <c r="C660" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="661" spans="2:3">
       <c r="C661" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="662" spans="2:3">
       <c r="C662" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="663" spans="2:3">
       <c r="C663" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="664" spans="2:3">
       <c r="C664" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="666" spans="2:3">
@@ -29642,148 +30243,136 @@
         <v>4</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="668" spans="2:3">
       <c r="C668" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="669" spans="2:3">
       <c r="C669" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="670" spans="2:3">
       <c r="C670" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="671" spans="2:3">
       <c r="C671" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="672" spans="2:3">
       <c r="C672" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="673" spans="2:3">
       <c r="C673" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="675" spans="2:3">
       <c r="B675" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="677" spans="2:3">
       <c r="B677" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="678" spans="2:3">
       <c r="B678" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="679" spans="2:3">
       <c r="B679" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="680" spans="2:3">
       <c r="B680" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="681" spans="2:3">
       <c r="B681" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="682" spans="2:3">
       <c r="B682" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="683" spans="2:3">
       <c r="B683" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="685" spans="2:3">
       <c r="B685" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="686" spans="2:3">
       <c r="B686" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="687" spans="2:3">
       <c r="B687" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="688" spans="2:3">
       <c r="B688" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="689" spans="2:2">
       <c r="B689" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="691" spans="2:2">
       <c r="B691" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="692" spans="2:2">
       <c r="B692" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="693" spans="2:2">
       <c r="B693" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="694" spans="2:2">
       <c r="B694" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="695" spans="2:2">
       <c r="B695" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="696" spans="2:2">
       <c r="B696" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G136:K136"/>
-    <mergeCell ref="L136:P136"/>
-    <mergeCell ref="Q136:U136"/>
-    <mergeCell ref="G137:K137"/>
-    <mergeCell ref="L137:P137"/>
-    <mergeCell ref="Q137:U137"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="L134:P134"/>
-    <mergeCell ref="Q134:U134"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="L135:P135"/>
-    <mergeCell ref="Q135:U135"/>
     <mergeCell ref="B137:F137"/>
     <mergeCell ref="G131:K131"/>
     <mergeCell ref="L131:P131"/>
@@ -29800,6 +30389,18 @@
     <mergeCell ref="B134:F134"/>
     <mergeCell ref="B135:F135"/>
     <mergeCell ref="B136:F136"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="L134:P134"/>
+    <mergeCell ref="Q134:U134"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="L135:P135"/>
+    <mergeCell ref="Q135:U135"/>
+    <mergeCell ref="G136:K136"/>
+    <mergeCell ref="L136:P136"/>
+    <mergeCell ref="Q136:U136"/>
+    <mergeCell ref="G137:K137"/>
+    <mergeCell ref="L137:P137"/>
+    <mergeCell ref="Q137:U137"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29828,185 +30429,185 @@
     <row r="3" spans="1:21" s="15" customFormat="1"/>
     <row r="4" spans="1:21" s="15" customFormat="1">
       <c r="B4" s="15" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1"/>
     <row r="6" spans="1:21" s="15" customFormat="1">
       <c r="B6" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="15" customFormat="1"/>
     <row r="8" spans="1:21" s="15" customFormat="1">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="s">
         <v>1793</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29" t="s">
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27" t="s">
         <v>1794</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29" t="s">
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+    </row>
+    <row r="9" spans="1:21" s="15" customFormat="1" ht="39" customHeight="1">
+      <c r="B9" s="27" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28" t="s">
         <v>1795</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-    </row>
-    <row r="9" spans="1:21" s="15" customFormat="1" ht="39" customHeight="1">
-      <c r="B9" s="29" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28" t="s">
+        <v>1796</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28" t="s">
+        <v>1797</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+    </row>
+    <row r="10" spans="1:21" s="15" customFormat="1">
+      <c r="B10" s="27" t="s">
         <v>1789</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27" t="s">
-        <v>1796</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="27" t="s">
-        <v>1797</v>
-      </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="27" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="29" t="s">
         <v>1798</v>
       </c>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-    </row>
-    <row r="10" spans="1:21" s="15" customFormat="1">
-      <c r="B10" s="29" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+    </row>
+    <row r="11" spans="1:21" s="15" customFormat="1">
+      <c r="B11" s="27" t="s">
         <v>1790</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="29" t="s">
         <v>1799</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-    </row>
-    <row r="11" spans="1:21" s="15" customFormat="1">
-      <c r="B11" s="29" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+    </row>
+    <row r="12" spans="1:21" s="15" customFormat="1" ht="39.75" customHeight="1">
+      <c r="B12" s="27" t="s">
         <v>1791</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28" t="s">
         <v>1800</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-    </row>
-    <row r="12" spans="1:21" s="15" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B12" s="29" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="27" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28" t="s">
         <v>1801</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="27" t="s">
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28" t="s">
         <v>1802</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="27" t="s">
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+    </row>
+    <row r="13" spans="1:21" s="15" customFormat="1" ht="93.75" customHeight="1">
+      <c r="B13" s="27" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28" t="s">
         <v>1803</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-    </row>
-    <row r="13" spans="1:21" s="15" customFormat="1" ht="93.75" customHeight="1">
-      <c r="B13" s="29" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28" t="s">
         <v>1804</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27" t="s">
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28" t="s">
         <v>1805</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27" t="s">
-        <v>1806</v>
-      </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
     </row>
     <row r="14" spans="1:21" s="15" customFormat="1"/>
     <row r="15" spans="1:21" s="15" customFormat="1"/>
@@ -30034,40 +30635,40 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="15" customFormat="1"/>
     <row r="37" spans="1:2" s="15" customFormat="1">
       <c r="B37" s="15" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="15" customFormat="1">
       <c r="B38" s="15" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="15" customFormat="1">
       <c r="B39" s="15" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="15" customFormat="1"/>
     <row r="41" spans="1:2" s="15" customFormat="1">
       <c r="B41" s="15" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="15" customFormat="1">
       <c r="B42" s="15" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="15" customFormat="1"/>
     <row r="44" spans="1:2" s="15" customFormat="1">
       <c r="B44" s="15" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="15" customFormat="1"/>
@@ -30104,67 +30705,67 @@
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="15" customFormat="1"/>
     <row r="76" spans="1:2" s="15" customFormat="1">
       <c r="B76" s="15" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="15" customFormat="1">
       <c r="B77" s="15" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="15" customFormat="1"/>
     <row r="79" spans="1:2" s="15" customFormat="1">
       <c r="B79" s="15" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="15" customFormat="1">
       <c r="B80" s="15" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="81" spans="2:3" s="15" customFormat="1">
       <c r="B81" s="15" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="82" spans="2:3" s="15" customFormat="1"/>
     <row r="83" spans="2:3" s="15" customFormat="1">
       <c r="B83" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="84" spans="2:3" s="15" customFormat="1"/>
     <row r="85" spans="2:3" s="15" customFormat="1">
       <c r="B85" s="15" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="86" spans="2:3" s="15" customFormat="1">
       <c r="B86" s="15" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="87" spans="2:3" s="15" customFormat="1">
       <c r="B87" s="15" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="88" spans="2:3" s="15" customFormat="1"/>
     <row r="89" spans="2:3" s="15" customFormat="1">
       <c r="B89" s="15" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="90" spans="2:3" s="15" customFormat="1">
       <c r="B90" s="15" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="91" spans="2:3" s="15" customFormat="1"/>
@@ -30173,50 +30774,50 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="93" spans="2:3" s="15" customFormat="1"/>
     <row r="94" spans="2:3" s="15" customFormat="1">
       <c r="C94" s="15" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="95" spans="2:3" s="15" customFormat="1">
       <c r="C95" s="15" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="96" spans="2:3" s="15" customFormat="1">
       <c r="C96" s="15" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="97" spans="2:3" s="15" customFormat="1">
       <c r="C97" s="15" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="98" spans="2:3" s="15" customFormat="1"/>
     <row r="99" spans="2:3" s="15" customFormat="1">
       <c r="C99" s="15" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="100" spans="2:3" s="15" customFormat="1">
       <c r="C100" s="15" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="101" spans="2:3" s="15" customFormat="1">
       <c r="C101" s="15" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="102" spans="2:3" s="15" customFormat="1"/>
     <row r="103" spans="2:3" s="15" customFormat="1">
       <c r="C103" s="15" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="104" spans="2:3" s="15" customFormat="1"/>
@@ -30225,29 +30826,29 @@
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="106" spans="2:3" s="15" customFormat="1"/>
     <row r="107" spans="2:3" s="15" customFormat="1">
       <c r="C107" s="15" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="108" spans="2:3" s="15" customFormat="1">
       <c r="C108" s="15" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="109" spans="2:3" s="15" customFormat="1">
       <c r="C109" s="15" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="110" spans="2:3" s="15" customFormat="1"/>
     <row r="111" spans="2:3" s="15" customFormat="1">
       <c r="C111" s="15" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="112" spans="2:3" s="15" customFormat="1"/>
@@ -30256,23 +30857,23 @@
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="114" spans="2:3" s="15" customFormat="1"/>
     <row r="115" spans="2:3" s="15" customFormat="1">
       <c r="C115" s="15" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="116" spans="2:3" s="15" customFormat="1">
       <c r="C116" s="15" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="117" spans="2:3" s="15" customFormat="1">
       <c r="C117" s="15" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="118" spans="2:3" s="15" customFormat="1"/>
@@ -30281,23 +30882,23 @@
         <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="120" spans="2:3" s="15" customFormat="1"/>
     <row r="121" spans="2:3" s="15" customFormat="1">
       <c r="C121" s="15" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="122" spans="2:3" s="15" customFormat="1">
       <c r="C122" s="15" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="123" spans="2:3" s="15" customFormat="1">
       <c r="C123" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="124" spans="2:3" s="15" customFormat="1"/>
@@ -30306,24 +30907,24 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="126" spans="2:3" s="15" customFormat="1"/>
     <row r="127" spans="2:3" s="15" customFormat="1">
       <c r="C127" s="15" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="128" spans="2:3" s="15" customFormat="1">
       <c r="C128" s="15" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="129" spans="2:3" s="15" customFormat="1"/>
     <row r="130" spans="2:3" s="15" customFormat="1">
       <c r="B130" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="131" spans="2:3" s="15" customFormat="1"/>
@@ -30332,18 +30933,18 @@
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="133" spans="2:3" s="15" customFormat="1"/>
     <row r="134" spans="2:3" s="15" customFormat="1">
       <c r="C134" s="15" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="135" spans="2:3" s="15" customFormat="1">
       <c r="C135" s="15" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="136" spans="2:3" s="15" customFormat="1"/>
@@ -30352,23 +30953,23 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="138" spans="2:3" s="15" customFormat="1"/>
     <row r="139" spans="2:3" s="15" customFormat="1">
       <c r="C139" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="140" spans="2:3" s="15" customFormat="1">
       <c r="C140" s="15" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="141" spans="2:3" s="15" customFormat="1">
       <c r="C141" s="15" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="142" spans="2:3" s="15" customFormat="1"/>
@@ -30377,18 +30978,18 @@
         <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="144" spans="2:3" s="15" customFormat="1"/>
     <row r="145" spans="2:3" s="15" customFormat="1">
       <c r="C145" s="15" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="146" spans="2:3" s="15" customFormat="1">
       <c r="C146" s="15" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="147" spans="2:3" s="15" customFormat="1"/>
@@ -30397,18 +30998,18 @@
         <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="149" spans="2:3" s="15" customFormat="1"/>
     <row r="150" spans="2:3" s="15" customFormat="1">
       <c r="C150" s="15" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="151" spans="2:3" s="15" customFormat="1">
       <c r="C151" s="15" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="152" spans="2:3" s="15" customFormat="1"/>
@@ -31100,6 +31701,12 @@
     <row r="838" s="15" customFormat="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="G10:U10"/>
+    <mergeCell ref="G11:U11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:P12"/>
@@ -31114,12 +31721,6 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="G10:U10"/>
-    <mergeCell ref="G11:U11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
